--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C84655C-3328-4DC4-9249-002AA069082F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ADF362-1A21-4D31-A81E-8CA5DE5FEB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="26">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,23 +55,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Power, 5E-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power, 5E-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type I Error(X2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type I Error(Fraction)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type I Error(Num &lt; 1E-4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,7 +131,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Power, X2_with_LDAK</t>
+    <t>Power, X2_with_LDAK(P-value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power, 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power, 1e-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type I Error(P-value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type I Error(Num &lt; 0.01)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,28 +507,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5">
         <v>66688</v>
@@ -551,7 +551,7 @@
         <v>1000</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H2" s="4">
         <v>0.01</v>
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5">
         <v>66688</v>
@@ -577,7 +577,7 @@
         <v>1000</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4">
         <v>0.01</v>
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5">
         <v>66688</v>
@@ -603,7 +603,7 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4" s="4">
         <v>0.01</v>
@@ -617,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5">
         <v>66688</v>
@@ -629,7 +629,7 @@
         <v>10000</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4">
         <v>0.01</v>
@@ -643,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5">
         <v>66688</v>
@@ -655,7 +655,7 @@
         <v>10000</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H6" s="4">
         <v>0.01</v>
@@ -669,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5">
         <v>66688</v>
@@ -681,7 +681,7 @@
         <v>10000</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H7" s="4">
         <v>0.01</v>
@@ -695,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>10000</v>
@@ -707,7 +707,7 @@
         <v>1000</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H8" s="4">
         <v>0.01</v>
@@ -721,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>10000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H9" s="4">
         <v>0.01</v>
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>10000</v>
@@ -759,7 +759,7 @@
         <v>1000</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H10" s="4">
         <v>0.01</v>
@@ -773,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>10000</v>
@@ -785,7 +785,7 @@
         <v>10000</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H11" s="4">
         <v>0.01</v>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>10000</v>
@@ -811,7 +811,7 @@
         <v>10000</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H12" s="4">
         <v>0.01</v>
@@ -825,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>10000</v>
@@ -837,7 +837,7 @@
         <v>10000</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H13" s="4">
         <v>0.01</v>
@@ -851,7 +851,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5">
         <v>66688</v>
@@ -863,7 +863,7 @@
         <v>1000</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H14" s="4">
         <v>0.01</v>
@@ -877,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5">
         <v>66688</v>
@@ -889,7 +889,7 @@
         <v>1000</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H15" s="4">
         <v>0.01</v>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5">
         <v>66688</v>
@@ -915,7 +915,7 @@
         <v>1000</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H16" s="4">
         <v>0.01</v>
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D17" s="5">
         <v>66688</v>
@@ -941,7 +941,7 @@
         <v>10000</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H17" s="4">
         <v>0.01</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D18" s="5">
         <v>66688</v>
@@ -967,7 +967,7 @@
         <v>10000</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H18" s="4">
         <v>0.01</v>
@@ -981,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5">
         <v>66688</v>
@@ -993,7 +993,7 @@
         <v>10000</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H19" s="4">
         <v>0.01</v>
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>10000</v>
@@ -1019,7 +1019,7 @@
         <v>1000</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H20" s="4">
         <v>0.01</v>
@@ -1033,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>10000</v>
@@ -1045,7 +1045,7 @@
         <v>1000</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H21" s="4">
         <v>0.01</v>
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>10000</v>
@@ -1071,7 +1071,7 @@
         <v>1000</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H22" s="4">
         <v>0.01</v>
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>10000</v>
@@ -1097,7 +1097,7 @@
         <v>10000</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H23" s="4">
         <v>0.01</v>
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>10000</v>
@@ -1123,7 +1123,7 @@
         <v>10000</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H24" s="4">
         <v>0.01</v>
@@ -1137,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>10000</v>
@@ -1149,7 +1149,7 @@
         <v>10000</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H25" s="4">
         <v>0.01</v>
@@ -1164,14 +1164,353 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B5156D-B603-4DE6-8349-0DAA0F3F8790}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="10" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1179,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1190,7 +1529,7 @@
     <col min="1" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1198,285 +1537,681 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.955986807940442</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="E2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.845612199802112</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.00931098696462</v>
+      </c>
+      <c r="H2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
+        <v>0.86168405312108198</v>
+      </c>
+      <c r="D3">
+        <v>0.183</v>
+      </c>
+      <c r="E3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>9.0764732849049103E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.89013035381750505</v>
+      </c>
+      <c r="H3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.99906890130353798</v>
+      </c>
+      <c r="H4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0.73611673563597002</v>
+      </c>
+      <c r="D5">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="E5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.74405658048782797</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.98510242085661104</v>
+      </c>
+      <c r="H5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>0.95398175171206601</v>
+      </c>
+      <c r="D6">
+        <v>0.185</v>
+      </c>
+      <c r="E6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.43103862058571502</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.96554934823091199</v>
+      </c>
+      <c r="H6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.90155386968191187</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.189</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4800000000000003E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60595677483211197</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96983240223463718</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.71352101957502101</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.0167597765363099</v>
+      </c>
+      <c r="H8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0.95338433753467799</v>
+      </c>
+      <c r="D9">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.4498937736518699E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.88547486033519596</v>
+      </c>
+      <c r="H9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E10">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.913775868868408</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.0055865921787699</v>
+      </c>
+      <c r="H10">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0.82190338387099604</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.94808158310327095</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.99627560521415304</v>
+      </c>
+      <c r="H11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="E12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.45728690816092699</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.96741154562383602</v>
+      </c>
+      <c r="H12">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.95505754428113487</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.18639999999999998</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13" si="2">AVERAGE(E8:E12)</f>
+        <v>2.4200000000000003E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ref="F13" si="3">AVERAGE(F8:F12)</f>
+        <v>0.60782305469625564</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13" si="4">AVERAGE(G8:G12)</f>
+        <v>0.97430167597765305</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13" si="5">AVERAGE(H8:H12)</f>
+        <v>186.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0.73848868338337903</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E14">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F14">
+        <v>2.7620152836281098E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.09776536312849</v>
+      </c>
+      <c r="H14">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>0.81451383013809797</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E15">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F15">
+        <v>4.6156727821141698E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.91527001862197399</v>
+      </c>
+      <c r="H15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.952307520852678</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E16">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F16">
+        <v>7.3950356860276303E-2</v>
+      </c>
+      <c r="G16">
+        <v>1.0791433891992599</v>
+      </c>
+      <c r="H16">
+        <v>167</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="C17">
+        <v>0.90968956690559399</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.191</v>
+      </c>
+      <c r="E17">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.35592429310670198</v>
+      </c>
+      <c r="G17">
+        <v>1.0409683426443199</v>
+      </c>
+      <c r="H17">
+        <v>191</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="E18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.94817706565693605</v>
+      </c>
+      <c r="G18">
+        <v>1.0037243947858501</v>
+      </c>
+      <c r="H18">
+        <v>182</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.88299992025594987</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19" si="6">AVERAGE(D14:D18)</f>
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" ref="E19" si="7">AVERAGE(E14:E18)</f>
+        <v>2.3600000000000003E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19" si="8">AVERAGE(F14:F18)</f>
+        <v>0.29036571925626742</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" ref="G19" si="9">AVERAGE(G14:G18)</f>
+        <v>1.0273743016759789</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" ref="H19" si="10">AVERAGE(H14:H18)</f>
+        <v>182.6</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E20">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.79528948741880001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.0121042830539999</v>
+      </c>
+      <c r="H20">
+        <v>206</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E21">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F21">
+        <v>3.7106916296500599E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.91154562383612703</v>
+      </c>
+      <c r="H21">
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.66601506352085305</v>
+      </c>
+      <c r="G22">
+        <v>1.0195530726257001</v>
+      </c>
+      <c r="H22">
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="E23">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.77870696808959305</v>
+      </c>
+      <c r="G23">
+        <v>1.01303538175047</v>
+      </c>
+      <c r="H23">
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.183</v>
+      </c>
+      <c r="E24">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.61598795620001101</v>
+      </c>
+      <c r="G24">
+        <v>0.977653631284916</v>
+      </c>
+      <c r="H24">
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25" si="11">AVERAGE(D20:D24)</f>
+        <v>0.1862</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25" si="12">AVERAGE(E20:E24)</f>
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" ref="F25" si="13">AVERAGE(F20:F24)</f>
+        <v>0.57862127830515164</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" ref="G25" si="14">AVERAGE(G20:G24)</f>
+        <v>0.98677839851024252</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" ref="H25" si="15">AVERAGE(H20:H24)</f>
+        <v>186.2</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1485,7 +2220,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1494,7 +2229,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1503,7 +2238,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1512,7 +2247,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -1521,10 +2256,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1540,15 +2275,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2C081E-92D6-4B78-B185-DCBA62E5C9BB}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:G25"/>
+      <selection activeCell="C25" sqref="C25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="10" width="15.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1556,606 +2294,681 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.34760722797638499</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>0.504</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.15228918575243799</v>
       </c>
       <c r="G2" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.93854748603352001</v>
+      </c>
+      <c r="H2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>1E-3</v>
+        <v>0.15225677736096599</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="E3">
-        <v>35.160767404064998</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="F3">
-        <v>5.7272727272727302</v>
+        <v>5.8598874030648701E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0837988826815601</v>
+      </c>
+      <c r="H3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>0.34763037311552702</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="E4">
-        <v>0.16001863281704901</v>
+        <v>0.27</v>
       </c>
       <c r="F4">
-        <v>1.27272727272727</v>
+        <v>0.29346529297692397</v>
       </c>
       <c r="G4" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.04655493482309</v>
+      </c>
+      <c r="H4">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1E-3</v>
+        <v>0.22723373758898899</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="E5">
-        <v>1.6335615906585299</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="F5">
-        <v>1.72727272727273</v>
+        <v>0.30269229389545099</v>
       </c>
       <c r="G5" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.95530726256983201</v>
+      </c>
+      <c r="H5">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>1E-3</v>
+        <v>0.22723373758898899</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="F6">
-        <v>1.0909090909090899</v>
+        <v>0.10242732439768</v>
       </c>
       <c r="G6" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.93016759776536295</v>
+      </c>
+      <c r="H6">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>6.0000000000000006E-4</v>
+        <v>0.26039237072617116</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.51560000000000006</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>7.3908695255081156</v>
+        <v>0.27540000000000003</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>2.163636363636364</v>
+        <v>0.18189459421062831</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>23.8</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.99087523277467293</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>515.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.92867595658956303</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.128251903102791</v>
       </c>
       <c r="G8" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.93482309124767204</v>
+      </c>
+      <c r="H8">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.497</v>
       </c>
       <c r="E9">
-        <v>35.160767404064998</v>
+        <v>0.25</v>
       </c>
       <c r="F9">
-        <v>5.7272727272727302</v>
+        <v>3.0677533479915E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.09590316573557</v>
+      </c>
+      <c r="H9">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="E10">
-        <v>0.16001863281704901</v>
+        <v>0.25</v>
       </c>
       <c r="F10">
-        <v>1.27272727272727</v>
+        <v>0.20690920796574</v>
       </c>
       <c r="G10" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.05586592178771</v>
+      </c>
+      <c r="H10">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1E-3</v>
+        <v>0.68730699235125803</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0.89297359959113698</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="F11">
-        <v>1.5454545454545501</v>
+        <v>5.5873943064235203E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.08472998137803</v>
+      </c>
+      <c r="H11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1E-3</v>
+        <v>0.53115941380556697</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>0.497</v>
       </c>
       <c r="E12">
-        <v>4.1671324849230203E-2</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="F12">
-        <v>1.1818181818181801</v>
+        <v>0.357600531578672</v>
       </c>
       <c r="G12" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.95996275605214199</v>
+      </c>
+      <c r="H12">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C8:C12)</f>
-        <v>6.0000000000000006E-4</v>
+        <v>0.82942847254927765</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>0</v>
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.49359999999999998</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>7.2510861922644834</v>
+        <v>0.252</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>2.1454545454545459</v>
+        <v>0.15586262383827063</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>23.6</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0262569832402249</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>493.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.62266512757737702</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="E14">
-        <v>0.21054494808576399</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="F14">
-        <v>0.72727272727272696</v>
+        <v>0.27253595550542498</v>
       </c>
       <c r="G14">
+        <v>0.95251396648044695</v>
+      </c>
+      <c r="H14">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.89326752532961495</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="E15">
-        <v>1.5626164502245199</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="F15">
-        <v>0.45454545454545497</v>
+        <v>4.1671396314876701E-2</v>
       </c>
       <c r="G15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0903165735567999</v>
+      </c>
+      <c r="H15">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.85802421548403596</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>0.499</v>
       </c>
       <c r="E16">
-        <v>0.16001863281704901</v>
+        <v>0.254</v>
       </c>
       <c r="F16">
-        <v>1.27272727272727</v>
+        <v>1.4433034799090499E-3</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>1.14245810055866</v>
+      </c>
+      <c r="H16">
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>1E-3</v>
+        <v>0.59149595296799196</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>0.503</v>
       </c>
       <c r="E17">
-        <v>0.21054494808576399</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="F17">
-        <v>0.72727272727272696</v>
+        <v>1.7888505243455002E-2</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>1.10521415270019</v>
+      </c>
+      <c r="H17">
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18">
-        <v>1E-3</v>
+        <v>0.591406934652982</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="E18">
-        <v>0.94125099907908005</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="F18">
-        <v>0.54545454545454497</v>
+        <v>0.51830322752332902</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>1.02886405959032</v>
+      </c>
+      <c r="H18">
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
         <f>AVERAGE(C14:C18)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.71137195120240038</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>0</v>
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.49680000000000002</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>0.61699519565843541</v>
+        <v>0.25380000000000003</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>0.74545454545454481</v>
+        <v>0.17036847761339896</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>1.0638733705772834</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>496.8</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="E20">
-        <v>0.21054494808576399</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="F20">
-        <v>0.72727272727272696</v>
+        <v>0.179555659490514</v>
       </c>
       <c r="G20" s="1">
-        <v>8</v>
+        <v>0.94227188081936697</v>
+      </c>
+      <c r="H20">
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>0.497</v>
       </c>
       <c r="E21">
-        <v>0.50004192247137602</v>
+        <v>0.251</v>
       </c>
       <c r="F21">
-        <v>0.63636363636363602</v>
+        <v>3.23133713513757E-2</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>1.0949720670391101</v>
+      </c>
+      <c r="H21">
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="E22">
-        <v>0.16001863281704901</v>
+        <v>0.248</v>
       </c>
       <c r="F22">
-        <v>1.27272727272727</v>
+        <v>0.247497933112028</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>1.0512104283054</v>
+      </c>
+      <c r="H22">
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="E23">
-        <v>5.0004658095770503E-2</v>
+        <v>0.254</v>
       </c>
       <c r="F23">
-        <v>0.81818181818181801</v>
+        <v>7.3950356860276303E-2</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>1.0791433891992599</v>
+      </c>
+      <c r="H23">
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="F24">
-        <v>1.0909090909090899</v>
+        <v>0.86198834117192902</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>0.99162011173184395</v>
+      </c>
+      <c r="H24">
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C20:C24)</f>
-        <v>6.0000000000000006E-4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>0</v>
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.48899999999999999</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="3"/>
-        <v>0.18412203229399188</v>
+        <v>0.24879999999999997</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="3"/>
-        <v>0.90909090909090828</v>
+        <v>0.27906113239722463</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>1.0318435754189963</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>489</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2164,7 +2977,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2173,7 +2986,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -2182,7 +2995,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2191,7 +3004,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -2200,10 +3013,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2219,18 +3032,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF9AAFD-684E-44CB-B1B1-CDA94ECB61EF}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="20.08203125" customWidth="1"/>
+    <col min="1" max="10" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2238,606 +3051,681 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.21187743325692099</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="E2">
-        <v>1.2415470088229601</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="F2">
-        <v>1.63636363636364</v>
+        <v>0.44405513222833298</v>
       </c>
       <c r="G2" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.966480446927374</v>
+      </c>
+      <c r="H2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>3.7737643410998799E-2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="E3">
-        <v>44.3149569907361</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="F3">
-        <v>6.6363636363636402</v>
+        <v>0.17242587575385299</v>
       </c>
       <c r="G3" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.94134078212290495</v>
+      </c>
+      <c r="H3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>7.2102879016143701E-3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="E4">
-        <v>0.50004192247137602</v>
+        <v>0.45</v>
       </c>
       <c r="F4">
-        <v>0.63636363636363602</v>
+        <v>0.69501644750062297</v>
       </c>
       <c r="G4" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.98230912476722498</v>
+      </c>
+      <c r="H4">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1E-3</v>
+        <v>1.7074310762203E-3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="E5">
-        <v>1.6335615906585299</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F5">
-        <v>1.72727272727273</v>
+        <v>0.93095639103550398</v>
       </c>
       <c r="G5" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.00465549348231</v>
+      </c>
+      <c r="H5">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>0.135917941861354</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="E6">
-        <v>0.89297359959113698</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="F6">
-        <v>1.5454545454545501</v>
+        <v>2.4857360173560501E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.90502793296089401</v>
+      </c>
+      <c r="H6">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>2.0000000000000001E-4</v>
+        <v>7.889014750142169E-2</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.66459999999999997</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>9.7166162224560217</v>
+        <v>0.46180000000000004</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>2.4363636363636396</v>
+        <v>0.45346224133837476</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>26.8</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.95996275605214154</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>664.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.89055845436895598</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="E8">
-        <v>1.2415470088229601</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="F8">
-        <v>1.63636363636364</v>
+        <v>0.76223209737960795</v>
       </c>
       <c r="G8" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0139664804469299</v>
+      </c>
+      <c r="H8">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.64060443407754997</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E9">
-        <v>44.3149569907361</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="F9">
-        <v>6.6363636363636402</v>
+        <v>0.72963252502329901</v>
       </c>
       <c r="G9" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.01582867783985</v>
+      </c>
+      <c r="H9">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.35886389270732799</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.622</v>
       </c>
       <c r="E10">
-        <v>1.5626164502245199</v>
+        <v>0.38</v>
       </c>
       <c r="F10">
-        <v>0.45454545454545497</v>
+        <v>0.82874931980412503</v>
       </c>
       <c r="G10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0102420856610801</v>
+      </c>
+      <c r="H10">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1E-3</v>
+        <v>0.549047669131004</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>0.628</v>
       </c>
       <c r="E11">
-        <v>1.2415470088229601</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="F11">
-        <v>1.63636363636364</v>
+        <v>0.42636668655355497</v>
       </c>
       <c r="G11" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.03538175046555</v>
+      </c>
+      <c r="H11">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>0.624</v>
       </c>
       <c r="E12">
-        <v>0.16001863281704901</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="F12">
-        <v>1.27272727272727</v>
+        <v>0.89664340549225596</v>
       </c>
       <c r="G12" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.00651769087523</v>
+      </c>
+      <c r="H12">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C8:C12)</f>
-        <v>2.0000000000000001E-4</v>
+        <v>0.6878148900569675</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>0</v>
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.62640000000000007</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>9.7041372182847176</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>2.3272727272727289</v>
+        <v>0.72872480685056862</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>25.6</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0163873370577281</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>626.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.96339999886083905</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="F14">
-        <v>0.90909090909090895</v>
+        <v>0.54100848482185304</v>
       </c>
       <c r="G14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.97299813780260702</v>
+      </c>
+      <c r="H14">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.74405130476202197</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="E15">
-        <v>0.50004192247137602</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="F15">
-        <v>0.63636363636363602</v>
+        <v>0.25359118675701198</v>
       </c>
       <c r="G15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.95065176908752302</v>
+      </c>
+      <c r="H15">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.35886389270732799</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>0.622</v>
       </c>
       <c r="E16">
-        <v>0.94125099907908005</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="F16">
-        <v>0.54545454545454497</v>
+        <v>0.17242587575385299</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>0.94134078212290495</v>
+      </c>
+      <c r="H16">
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>1E-3</v>
+        <v>0.48910834633240902</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="E17">
-        <v>5.0004658095770503E-2</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="F17">
-        <v>0.81818181818181801</v>
+        <v>8.81883099957233E-4</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>0.86126629422718803</v>
+      </c>
+      <c r="H17">
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.61043273977468604</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="F18">
-        <v>0.90909090909090895</v>
+        <v>0.66296655585615505</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="H18">
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
         <f>AVERAGE(C14:C18)</f>
-        <v>2.0000000000000001E-4</v>
+        <v>0.63317125648745676</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>0</v>
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.629</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>0.29825951592924532</v>
+        <v>0.40499999999999997</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>0.76363636363636334</v>
+        <v>0.3261747972577661</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>0.94134078212290506</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>629</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="F20">
-        <v>1.0909090909090899</v>
+        <v>0.43887066655657803</v>
       </c>
       <c r="G20" s="1">
-        <v>12</v>
+        <v>1.0344506517690899</v>
+      </c>
+      <c r="H20">
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="E21">
-        <v>0.50004192247137602</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="F21">
-        <v>0.63636363636363602</v>
+        <v>0.53225141170525603</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>1.0279329608938499</v>
+      </c>
+      <c r="H21">
+        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="E22">
-        <v>0.94125099907908005</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="F22">
-        <v>0.54545454545454497</v>
+        <v>0.12983758812749599</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>1.06703910614525</v>
+      </c>
+      <c r="H22">
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="E23">
-        <v>6.25077630108061E-2</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="F23">
-        <v>1.28571428571429</v>
+        <v>0.451588522547966</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>1.03351955307263</v>
+      </c>
+      <c r="H23">
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>0.624</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.43887066655657803</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>1.0344506517690899</v>
+      </c>
+      <c r="H24">
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C20:C24)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>0</v>
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.61799999999999999</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="3"/>
-        <v>0.30076013691225245</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="3"/>
-        <v>0.9116883116883121</v>
+        <v>0.39828377109877477</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>1.0394785847299819</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>618</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2846,7 +3734,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2855,7 +3743,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -2864,7 +3752,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2873,7 +3761,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -2882,10 +3770,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2901,12 +3789,756 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CE8AA4-C000-41F4-BF16-645937E24711}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="10" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.32369292749197598</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.0437616387337101</v>
+      </c>
+      <c r="H2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.68178789556289299</v>
+      </c>
+      <c r="D3">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F3">
+        <v>0.109897115602011</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.0707635009311001</v>
+      </c>
+      <c r="H3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.72963927064289602</v>
+      </c>
+      <c r="D4">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.47073087402844199</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.96834264432029804</v>
+      </c>
+      <c r="H4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.96373374139069301</v>
+      </c>
+      <c r="D5">
+        <v>2.47E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F5">
+        <v>0.77731225170713303</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.98696461824953396</v>
+      </c>
+      <c r="H5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F6">
+        <v>0.451588522547966</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.03351955307263</v>
+      </c>
+      <c r="H6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.87503218151929651</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.5379999999999996E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6000000000000003E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42664433827550557</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0206703910614543</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>253.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F8">
+        <v>0.33421391407658402</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.04283054003724</v>
+      </c>
+      <c r="H8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.64836622896518303</v>
+      </c>
+      <c r="D9">
+        <v>2.41E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F9">
+        <v>9.6614377266402596E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.07355679702048</v>
+      </c>
+      <c r="H9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.69716563556335798</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F10">
+        <v>0.55564710926118299</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.97392923649906904</v>
+      </c>
+      <c r="H10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0.96373374139069301</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.47E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F11">
+        <v>0.81094962679959604</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.988826815642458</v>
+      </c>
+      <c r="H11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F12">
+        <v>0.451588522547966</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.03351955307263</v>
+      </c>
+      <c r="H12">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.86185312118384672</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.5340000000000001E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6000000000000003E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44980270999034627</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0225325884543754</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>253.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.69665572695038802</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.6470121910122202E-5</v>
+      </c>
+      <c r="G14">
+        <v>1.19459962756052</v>
+      </c>
+      <c r="H14">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.52E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F15">
+        <v>8.4067597328031495E-3</v>
+      </c>
+      <c r="G15">
+        <v>1.1173184357541901</v>
+      </c>
+      <c r="H15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.66518135503318898</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.69E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F16">
+        <v>0.31339471030764798</v>
+      </c>
+      <c r="G16">
+        <v>1.04469273743017</v>
+      </c>
+      <c r="H16">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0.64640428339669997</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F17">
+        <v>0.63149302198875101</v>
+      </c>
+      <c r="G17">
+        <v>0.97858472998137802</v>
+      </c>
+      <c r="H17">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.92585017287847504</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.35E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F18">
+        <v>0.402007704485013</v>
+      </c>
+      <c r="G18">
+        <v>1.0372439478584701</v>
+      </c>
+      <c r="H18">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.78681830765175043</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.546E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6000000000000003E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.27106373332722505</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0744878957169457</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>254.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.69E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F20">
+        <v>0.33421391407658402</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.04283054003724</v>
+      </c>
+      <c r="H20">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.52E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F21">
+        <v>6.4384196195393706E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.0819366852886401</v>
+      </c>
+      <c r="H21">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F22">
+        <v>0.86198834117192902</v>
+      </c>
+      <c r="G22">
+        <v>0.99162011173184395</v>
+      </c>
+      <c r="H22">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F23">
+        <v>0.82789257980882602</v>
+      </c>
+      <c r="G23">
+        <v>0.98975791433892002</v>
+      </c>
+      <c r="H23">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F24">
+        <v>0.42636668655355497</v>
+      </c>
+      <c r="G24">
+        <v>1.03538175046555</v>
+      </c>
+      <c r="H24">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.5760000000000005E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.50296914356125755</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0283054003724388</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>257.60000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2914,12 +4546,756 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F3453D-5969-43A8-99BA-C3A3B3B1D142}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="10" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.43045357102403897</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.1055</v>
+      </c>
+      <c r="E2">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.21460706447075401</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.0549348230912501</v>
+      </c>
+      <c r="H2">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.87469842493570704</v>
+      </c>
+      <c r="D3">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="E3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.56072610086491503</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.0260707635009301</v>
+      </c>
+      <c r="H3">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.31105722939779601</v>
+      </c>
+      <c r="D4">
+        <v>0.1077</v>
+      </c>
+      <c r="E4">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F4">
+        <v>0.23556654567434801</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.94878957169459999</v>
+      </c>
+      <c r="H4">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.68605114378958698</v>
+      </c>
+      <c r="D5">
+        <v>0.111</v>
+      </c>
+      <c r="E5">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F5">
+        <v>0.34495774540945001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.0418994413407801</v>
+      </c>
+      <c r="H5">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.963927569634346</v>
+      </c>
+      <c r="D6">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="E6">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.72759029702775402</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.98417132216014902</v>
+      </c>
+      <c r="H6">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.65323758775629492</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.10902000000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41668955068944424</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0111731843575418</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>1090.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.20418537246271101</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.1076</v>
+      </c>
+      <c r="E8">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.39015580177518799</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.03817504655493</v>
+      </c>
+      <c r="H8">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.1105</v>
+      </c>
+      <c r="E9">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="F9">
+        <v>0.72963252502329901</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.01582867783985</v>
+      </c>
+      <c r="H9">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.460156585299487</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.1065</v>
+      </c>
+      <c r="E10">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="F10">
+        <v>0.39330763662419199</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.96275605214152704</v>
+      </c>
+      <c r="H10">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0.89386516303260199</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="E11">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.34495774540945001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.0418994413407801</v>
+      </c>
+      <c r="H11">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.768289198025215</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.1086</v>
+      </c>
+      <c r="E12">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.53225141170525603</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.0279329608938499</v>
+      </c>
+      <c r="H12">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.66529926376400295</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.1086</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>6.0600000000000003E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47806102410747703</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0173184357541873</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.87031021945486198</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.1028</v>
+      </c>
+      <c r="E14">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="F14">
+        <v>0.61987491582129195</v>
+      </c>
+      <c r="G14">
+        <v>1.02234636871508</v>
+      </c>
+      <c r="H14">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.1105</v>
+      </c>
+      <c r="E15">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="F15">
+        <v>0.60482380829563298</v>
+      </c>
+      <c r="G15">
+        <v>1.0232774674115499</v>
+      </c>
+      <c r="H15">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.67690717499223596</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.1051</v>
+      </c>
+      <c r="E16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F16">
+        <v>0.77731225170713303</v>
+      </c>
+      <c r="G16">
+        <v>0.98696461824953396</v>
+      </c>
+      <c r="H16">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0.76558778910360703</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.1077</v>
+      </c>
+      <c r="E17">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="F17">
+        <v>0.65047578375368198</v>
+      </c>
+      <c r="G17">
+        <v>1.02048417132216</v>
+      </c>
+      <c r="H17">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.85627416568850101</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.1091</v>
+      </c>
+      <c r="E18">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="F18">
+        <v>0.77870696808959305</v>
+      </c>
+      <c r="G18">
+        <v>1.01303538175047</v>
+      </c>
+      <c r="H18">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.83381586984784106</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.10704</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5799999999999999E-3</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.68623874553346664</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0132216014897586</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1070.4000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E20">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.28383296764629501</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.0474860335195499</v>
+      </c>
+      <c r="H20">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.1104</v>
+      </c>
+      <c r="E21">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="F21">
+        <v>3.9633338383869898E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.09124767225326</v>
+      </c>
+      <c r="H21">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.1032</v>
+      </c>
+      <c r="E22">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="F22">
+        <v>0.66296655585615505</v>
+      </c>
+      <c r="G22">
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="H22">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.1091</v>
+      </c>
+      <c r="E23">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="F23">
+        <v>7.7389330305688897E-2</v>
+      </c>
+      <c r="G23">
+        <v>1.07821229050279</v>
+      </c>
+      <c r="H23">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="E24">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="F24">
+        <v>0.39015580177518799</v>
+      </c>
+      <c r="G24">
+        <v>1.03817504655493</v>
+      </c>
+      <c r="H24">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.10693999999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>5.8399999999999997E-3</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29079559879343936</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0471135940409664</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1069.4000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2927,12 +5303,756 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98613644-D52B-468D-B43A-F11B75F66227}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="10" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>6.3930362419249397E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.91353805817899203</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.994413407821229</v>
+      </c>
+      <c r="H2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.9572882277874097E-5</v>
+      </c>
+      <c r="D3">
+        <v>0.2056</v>
+      </c>
+      <c r="E3">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.66296655585615505</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="H3">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.7468828822458502E-4</v>
+      </c>
+      <c r="D4">
+        <v>0.2026</v>
+      </c>
+      <c r="E4">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.230628632798242</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.0530726256983201</v>
+      </c>
+      <c r="H4">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2.67024723392848E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="E5">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.20690920796574</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.05586592178771</v>
+      </c>
+      <c r="H5">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.6990171195995699E-4</v>
+      </c>
+      <c r="D6">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E6">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.0715945536958801E-4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="H6">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.9314892716631674E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.20506000000000002</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3679999999999995E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40284992285089977</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0500931098696462</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>2050.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.21859233250887</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="E8">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.67892266507797105</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.98137802607076396</v>
+      </c>
+      <c r="H8">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5.9837539298579101E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.1933</v>
+      </c>
+      <c r="E9">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.33421391407658402</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.04283054003724</v>
+      </c>
+      <c r="H9">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1.48981274862354E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.1958</v>
+      </c>
+      <c r="E10">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.33421391407658402</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.04283054003724</v>
+      </c>
+      <c r="H10">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>6.8689178010969298E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="E11">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="F11">
+        <v>9.4798739228268494E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.1154562383612701</v>
+      </c>
+      <c r="H11">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5.1552342036002299E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="E12">
+        <v>3.04E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.6052023784277401E-5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.1797020484171299</v>
+      </c>
+      <c r="H12">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>8.2713903868131225E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.19628000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0080000000000003E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27137928383555004</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0724394785847289</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1962.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.28532595052447102</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.19070000000000001</v>
+      </c>
+      <c r="E14">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>9.3319675500381297E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.92830540037243903</v>
+      </c>
+      <c r="H14">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>8.8611111800255798E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.1923</v>
+      </c>
+      <c r="E15">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>2.34284432430358E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.90409683426443199</v>
+      </c>
+      <c r="H15">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3.3047522349292598E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.19409999999999999</v>
+      </c>
+      <c r="E16">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.51230141415826203</v>
+      </c>
+      <c r="G16">
+        <v>0.97113594040968299</v>
+      </c>
+      <c r="H16">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0.30325499643708598</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="E17">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.69501644750062297</v>
+      </c>
+      <c r="G17">
+        <v>0.98230912476722498</v>
+      </c>
+      <c r="H17">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>6.5796474549514303E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.1948</v>
+      </c>
+      <c r="E18">
+        <v>2.86E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.178150864818688</v>
+      </c>
+      <c r="G18">
+        <v>1.0595903165735601</v>
+      </c>
+      <c r="H18">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.15520721113212393</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.19453999999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8059999999999995E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.30044336904419799</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.96908752327746783</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1945.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.1847</v>
+      </c>
+      <c r="E20">
+        <v>2.35E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.28383296764629501</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.0474860335195499</v>
+      </c>
+      <c r="H20">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="E21">
+        <v>2.46E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.72963252502329901</v>
+      </c>
+      <c r="G21">
+        <v>1.01582867783985</v>
+      </c>
+      <c r="H21">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.1822</v>
+      </c>
+      <c r="E22">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.124603430338662</v>
+      </c>
+      <c r="G22">
+        <v>1.0679702048417099</v>
+      </c>
+      <c r="H22">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.19489999999999999</v>
+      </c>
+      <c r="E23">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.0481823896409799E-5</v>
+      </c>
+      <c r="G23">
+        <v>1.1992551210428299</v>
+      </c>
+      <c r="H23">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.1845</v>
+      </c>
+      <c r="E24">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.00613234333507E-2</v>
+      </c>
+      <c r="G24">
+        <v>1.1145251396647999</v>
+      </c>
+      <c r="H24">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.18581999999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6079999999999999E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.22962814565310063</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.089013035381748</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1858.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2940,12 +6060,353 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342CD54D-B350-4234-9D6A-F56A96F518EA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="10" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2953,12 +6414,353 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F32576D-7324-4E89-A691-F73DCAEAA290}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="10" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ADF362-1A21-4D31-A81E-8CA5DE5FEB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6228DF18-E523-4E61-8912-04BC5CB1B8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5306,12 +5306,14 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="15.58203125" customWidth="1"/>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="10" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6228DF18-E523-4E61-8912-04BC5CB1B8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CBDB38-7822-4482-893D-D4E552A012BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="1130" windowWidth="21550" windowHeight="12550" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="27">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,10 @@
   </si>
   <si>
     <t>Type I Error(Num &lt; 0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power, Avg X2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1164,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B5156D-B603-4DE6-8349-0DAA0F3F8790}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1179,7 @@
     <col min="1" max="10" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1192,22 +1196,25 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1217,7 +1224,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1234,7 @@
       <c r="C3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1244,7 @@
       <c r="C4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1246,7 +1253,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1263,7 @@
       <c r="C6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1277,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1280,7 +1287,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1289,7 +1296,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +1306,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1309,7 +1316,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1319,7 +1326,7 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1333,7 +1340,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +1349,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +1358,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1518,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1529,7 +1536,7 @@
     <col min="1" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1546,22 +1553,25 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1578,16 +1588,19 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F2">
+        <v>3.9172470153411898</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.845612199802112</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2">
         <v>1.00931098696462</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1604,16 +1617,19 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F3">
+        <v>3.6662308844205498</v>
+      </c>
+      <c r="G3" s="1">
         <v>9.0764732849049103E-3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3">
         <v>0.89013035381750505</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1630,16 +1646,19 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3.6782973592027499</v>
       </c>
       <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>0.99906890130353798</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1656,16 +1675,19 @@
         <v>2.4E-2</v>
       </c>
       <c r="F5">
+        <v>3.8550388301053</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.74405658048782797</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5">
         <v>0.98510242085661104</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1682,48 +1704,33 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="F6">
+        <v>3.7807874257117899</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.43103862058571502</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6">
         <v>0.96554934823091199</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>0.90155386968191187</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
-        <v>0.189</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4800000000000003E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.60595677483211197</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.96983240223463718</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1740,16 +1747,19 @@
         <v>2.7E-2</v>
       </c>
       <c r="F8">
+        <v>3.9172470153411898</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.71352101957502101</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8">
         <v>1.0167597765363099</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1766,16 +1776,19 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F9">
+        <v>3.6662308844205498</v>
+      </c>
+      <c r="G9" s="1">
         <v>6.4498937736518699E-3</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9">
         <v>0.88547486033519596</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1792,16 +1805,19 @@
         <v>2.7E-2</v>
       </c>
       <c r="F10">
+        <v>3.6782973592027499</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.913775868868408</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10">
         <v>1.0055865921787699</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1818,16 +1834,19 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="F11">
+        <v>3.8550388301053</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.94808158310327095</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11">
         <v>0.99627560521415304</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1844,48 +1863,33 @@
         <v>1.9E-2</v>
       </c>
       <c r="F12">
+        <v>3.7807874257117899</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.45728690816092699</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12">
         <v>0.96741154562383602</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2">
-        <f>AVERAGE(C8:C12)</f>
-        <v>0.95505754428113487</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13" si="1">AVERAGE(D8:D12)</f>
-        <v>0.18639999999999998</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" ref="E13" si="2">AVERAGE(E8:E12)</f>
-        <v>2.4200000000000003E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" ref="F13" si="3">AVERAGE(F8:F12)</f>
-        <v>0.60782305469625564</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" ref="G13" si="4">AVERAGE(G8:G12)</f>
-        <v>0.97430167597765305</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" ref="H13" si="5">AVERAGE(H8:H12)</f>
-        <v>186.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1902,16 +1906,19 @@
         <v>2.7E-2</v>
       </c>
       <c r="F14">
+        <v>3.9112686724096899</v>
+      </c>
+      <c r="G14">
         <v>2.7620152836281098E-2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.09776536312849</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1928,16 +1935,19 @@
         <v>2.4E-2</v>
       </c>
       <c r="F15">
+        <v>3.6429721586521402</v>
+      </c>
+      <c r="G15">
         <v>4.6156727821141698E-2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.91527001862197399</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1954,16 +1964,19 @@
         <v>2.7E-2</v>
       </c>
       <c r="F16">
+        <v>3.6834002363676701</v>
+      </c>
+      <c r="G16">
         <v>7.3950356860276303E-2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.0791433891992599</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1980,16 +1993,19 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="F17">
+        <v>3.88067200336137</v>
+      </c>
+      <c r="G17">
         <v>0.35592429310670198</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.0409683426443199</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2006,48 +2022,33 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F18">
+        <v>3.7736168913591999</v>
+      </c>
+      <c r="G18">
         <v>0.94817706565693605</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.0037243947858501</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2">
-        <f>AVERAGE(C14:C18)</f>
-        <v>0.88299992025594987</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19" si="6">AVERAGE(D14:D18)</f>
-        <v>0.18260000000000001</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" ref="E19" si="7">AVERAGE(E14:E18)</f>
-        <v>2.3600000000000003E-2</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" ref="F19" si="8">AVERAGE(F14:F18)</f>
-        <v>0.29036571925626742</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" ref="G19" si="9">AVERAGE(G14:G18)</f>
-        <v>1.0273743016759789</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" ref="H19" si="10">AVERAGE(H14:H18)</f>
-        <v>182.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2064,16 +2065,19 @@
         <v>2.4E-2</v>
       </c>
       <c r="F20">
+        <v>3.9202008817623302</v>
+      </c>
+      <c r="G20" s="1">
         <v>0.79528948741880001</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20">
         <v>1.0121042830539999</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2090,16 +2094,19 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F21">
+        <v>3.6721455562630898</v>
+      </c>
+      <c r="G21">
         <v>3.7106916296500599E-2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.91154562383612703</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2116,16 +2123,19 @@
         <v>2.7E-2</v>
       </c>
       <c r="F22">
+        <v>3.6820932479479098</v>
+      </c>
+      <c r="G22">
         <v>0.66601506352085305</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.0195530726257001</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2142,16 +2152,19 @@
         <v>2.3E-2</v>
       </c>
       <c r="F23">
+        <v>3.8565076926446</v>
+      </c>
+      <c r="G23">
         <v>0.77870696808959305</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.01303538175047</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2168,48 +2181,33 @@
         <v>1.9E-2</v>
       </c>
       <c r="F24">
+        <v>3.7881996713305601</v>
+      </c>
+      <c r="G24">
         <v>0.61598795620001101</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.977653631284916</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2">
-        <f>AVERAGE(C20:C24)</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" ref="D25" si="11">AVERAGE(D20:D24)</f>
-        <v>0.1862</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" ref="E25" si="12">AVERAGE(E20:E24)</f>
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" ref="F25" si="13">AVERAGE(F20:F24)</f>
-        <v>0.57862127830515164</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" ref="G25" si="14">AVERAGE(G20:G24)</f>
-        <v>0.98677839851024252</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" ref="H25" si="15">AVERAGE(H20:H24)</f>
-        <v>186.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2218,7 +2216,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2227,7 +2225,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2236,7 +2234,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2245,7 +2243,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2254,7 +2252,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2275,10 +2273,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2C081E-92D6-4B78-B185-DCBA62E5C9BB}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2286,7 +2284,7 @@
     <col min="1" max="10" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2303,22 +2301,25 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2335,16 +2336,19 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="F2">
+        <v>15.378073895147001</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.15228918575243799</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2">
         <v>0.93854748603352001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>504</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2361,16 +2365,19 @@
         <v>0.27800000000000002</v>
       </c>
       <c r="F3">
+        <v>14.8498239285318</v>
+      </c>
+      <c r="G3" s="1">
         <v>5.8598874030648701E-2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3">
         <v>1.0837988826815601</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>530</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2387,16 +2394,19 @@
         <v>0.27</v>
       </c>
       <c r="F4">
+        <v>15.037588841010599</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.29346529297692397</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4">
         <v>1.04655493482309</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2413,16 +2423,19 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="F5">
+        <v>15.1150803220021</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.30269229389545099</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5">
         <v>0.95530726256983201</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2439,16 +2452,19 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="F6">
+        <v>14.7503521392706</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.10242732439768</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6">
         <v>0.93016759776536295</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2469,18 +2485,22 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.18189459421062831</v>
+        <v>15.026183825192422</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>0.99087523277467293</v>
+        <v>0.18189459421062831</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
+        <v>0.99087523277467293</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
         <v>515.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2497,16 +2517,19 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="F8">
+        <v>15.378073895147001</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.128251903102791</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8">
         <v>0.93482309124767204</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>479</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2523,16 +2546,19 @@
         <v>0.25</v>
       </c>
       <c r="F9">
+        <v>14.8498239285318</v>
+      </c>
+      <c r="G9" s="1">
         <v>3.0677533479915E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9">
         <v>1.09590316573557</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2549,16 +2575,19 @@
         <v>0.25</v>
       </c>
       <c r="F10">
+        <v>15.037588841010599</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.20690920796574</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10">
         <v>1.05586592178771</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>495</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2575,16 +2604,19 @@
         <v>0.25700000000000001</v>
       </c>
       <c r="F11">
+        <v>15.1150803220021</v>
+      </c>
+      <c r="G11" s="1">
         <v>5.5873943064235203E-2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11">
         <v>1.08472998137803</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2601,48 +2633,33 @@
         <v>0.24199999999999999</v>
       </c>
       <c r="F12">
+        <v>14.7503521392706</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.357600531578672</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12">
         <v>0.95996275605214199</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2">
-        <f>AVERAGE(C8:C12)</f>
-        <v>0.82942847254927765</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
-        <v>0.49359999999999998</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.252</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.15586262383827063</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0262569832402249</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="1"/>
-        <v>493.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2659,16 +2676,19 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="F14">
+        <v>15.4023611855743</v>
+      </c>
+      <c r="G14">
         <v>0.27253595550542498</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.95251396648044695</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>494</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2685,16 +2705,19 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="F15">
+        <v>14.805823756040899</v>
+      </c>
+      <c r="G15">
         <v>4.1671396314876701E-2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.0903165735567999</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>493</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2711,16 +2734,19 @@
         <v>0.254</v>
       </c>
       <c r="F16">
+        <v>15.188571311228401</v>
+      </c>
+      <c r="G16">
         <v>1.4433034799090499E-3</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.14245810055866</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2737,16 +2763,19 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="F17">
+        <v>15.193128777096399</v>
+      </c>
+      <c r="G17">
         <v>1.7888505243455002E-2</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.10521415270019</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2763,48 +2792,33 @@
         <v>0.24199999999999999</v>
       </c>
       <c r="F18">
+        <v>14.7677502323798</v>
+      </c>
+      <c r="G18">
         <v>0.51830322752332902</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.02886405959032</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>495</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2">
-        <f>AVERAGE(C14:C18)</f>
-        <v>0.71137195120240038</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
-        <v>0.49680000000000002</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="2"/>
-        <v>0.25380000000000003</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>0.17036847761339896</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0638733705772834</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="2"/>
-        <v>496.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2821,16 +2835,19 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="F20">
+        <v>15.051655821623701</v>
+      </c>
+      <c r="G20" s="1">
         <v>0.179555659490514</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20">
         <v>0.94227188081936697</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>482</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2847,16 +2864,19 @@
         <v>0.251</v>
       </c>
       <c r="F21">
+        <v>14.4905559193777</v>
+      </c>
+      <c r="G21">
         <v>3.23133713513757E-2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1.0949720670391101</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>497</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2873,16 +2893,19 @@
         <v>0.248</v>
       </c>
       <c r="F22">
+        <v>14.721726278952801</v>
+      </c>
+      <c r="G22">
         <v>0.247497933112028</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.0512104283054</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>494</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2899,16 +2922,19 @@
         <v>0.254</v>
       </c>
       <c r="F23">
+        <v>14.8803283232014</v>
+      </c>
+      <c r="G23">
         <v>7.3950356860276303E-2</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.0791433891992599</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>490</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2925,16 +2951,19 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="F24">
+        <v>14.4990460379592</v>
+      </c>
+      <c r="G24">
         <v>0.86198834117192902</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.99162011173184395</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>482</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2946,27 +2975,31 @@
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <f t="shared" ref="D25:H25" si="1">AVERAGE(D20:D24)</f>
         <v>0.48899999999999999</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.24879999999999997</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
+        <v>14.728662476222961</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
         <v>0.27906113239722463</v>
       </c>
-      <c r="G25" s="2">
-        <f t="shared" si="3"/>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
         <v>1.0318435754189963</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" si="3"/>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2975,7 +3008,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2984,7 +3017,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2993,7 +3026,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -3002,7 +3035,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3011,7 +3044,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -3032,10 +3065,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF9AAFD-684E-44CB-B1B1-CDA94ECB61EF}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3043,7 +3076,7 @@
     <col min="1" max="10" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3060,22 +3093,25 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3101,7 +3137,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3127,7 +3163,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3153,7 +3189,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3179,7 +3215,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3205,7 +3241,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3237,7 +3273,7 @@
         <v>664.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3263,7 +3299,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3289,7 +3325,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3315,7 +3351,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3341,7 +3377,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3367,7 +3403,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3399,7 +3435,7 @@
         <v>626.4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3425,7 +3461,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -3451,7 +3487,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3789,10 +3825,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CE8AA4-C000-41F4-BF16-645937E24711}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3800,7 +3836,7 @@
     <col min="1" max="10" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3817,22 +3853,25 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3858,7 +3897,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3884,7 +3923,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3910,7 +3949,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3936,7 +3975,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3962,7 +4001,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3994,7 +4033,7 @@
         <v>253.8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4020,7 +4059,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4046,7 +4085,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4072,7 +4111,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4098,7 +4137,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -4124,7 +4163,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -4156,7 +4195,7 @@
         <v>253.4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4182,7 +4221,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4208,7 +4247,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4546,10 +4585,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F3453D-5969-43A8-99BA-C3A3B3B1D142}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4557,7 +4596,7 @@
     <col min="1" max="10" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4574,22 +4613,25 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4615,7 +4657,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4641,7 +4683,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4667,7 +4709,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4693,7 +4735,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4719,7 +4761,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4751,7 +4793,7 @@
         <v>1090.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4777,7 +4819,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4803,7 +4845,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4829,7 +4871,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4855,7 +4897,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -4881,7 +4923,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -4913,7 +4955,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4939,7 +4981,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4965,7 +5007,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -5303,10 +5345,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98613644-D52B-468D-B43A-F11B75F66227}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5316,7 +5358,7 @@
     <col min="4" max="10" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5333,22 +5375,25 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5374,7 +5419,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5400,7 +5445,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5426,7 +5471,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5452,7 +5497,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5478,7 +5523,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5510,7 +5555,7 @@
         <v>2050.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5536,7 +5581,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5562,7 +5607,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5588,7 +5633,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5614,7 +5659,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -5640,7 +5685,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -5672,7 +5717,7 @@
         <v>1962.8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -5698,7 +5743,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -5724,7 +5769,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -6062,10 +6107,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342CD54D-B350-4234-9D6A-F56A96F518EA}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6073,7 +6118,7 @@
     <col min="1" max="10" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6090,22 +6135,25 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6115,7 +6163,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6125,7 +6173,7 @@
       <c r="C3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6135,7 +6183,7 @@
       <c r="C4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6144,7 +6192,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6154,7 +6202,7 @@
       <c r="C6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6168,7 +6216,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6178,7 +6226,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6187,7 +6235,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6197,7 +6245,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6207,7 +6255,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -6217,7 +6265,7 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -6231,7 +6279,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -6240,7 +6288,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -6249,7 +6297,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -6416,10 +6464,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F32576D-7324-4E89-A691-F73DCAEAA290}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6427,7 +6475,7 @@
     <col min="1" max="10" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6444,22 +6492,25 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6469,7 +6520,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6479,7 +6530,7 @@
       <c r="C3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6489,7 +6540,7 @@
       <c r="C4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6498,7 +6549,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6508,7 +6559,7 @@
       <c r="C6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6522,7 +6573,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6532,7 +6583,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6541,7 +6592,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6551,7 +6602,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6561,7 +6612,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -6571,7 +6622,7 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -6585,7 +6636,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -6594,7 +6645,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -6603,7 +6654,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1EA0DD-003C-420C-81E5-C5B06CD64BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B96D46C-F411-41A9-8C6D-685266019EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -4862,8 +4862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:K31"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4921,9 +4921,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="E2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>3.43866056382842</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4.1017704702792302E-15</v>
+      </c>
+      <c r="H2">
+        <v>0.68901303538175096</v>
+      </c>
+      <c r="I2">
+        <v>155</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4932,7 +4950,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.3781850429216802</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.38806998630449E-10</v>
+      </c>
+      <c r="H3">
+        <v>0.74487895716945995</v>
+      </c>
+      <c r="I3">
+        <v>145</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4941,7 +4979,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.4099507211009499</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.8817465093305403E-11</v>
+      </c>
+      <c r="H4">
+        <v>0.73463687150837997</v>
+      </c>
+      <c r="I4">
+        <v>167</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4950,8 +5008,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>3.5123403528641499</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.0660506827995601E-14</v>
+      </c>
+      <c r="H5">
+        <v>0.696461824953445</v>
+      </c>
+      <c r="I5">
+        <v>177</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4960,7 +5037,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.5689844496613401</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.0075233235500699E-7</v>
+      </c>
+      <c r="H6">
+        <v>0.78305400372439504</v>
+      </c>
+      <c r="I6">
+        <v>171</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -4984,8 +5081,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.18665864403511001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>3.7322246854445198</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.1330171826182401E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.91713221601489803</v>
+      </c>
+      <c r="I8">
+        <v>178</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -4994,7 +5110,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.111406455654127</v>
+      </c>
+      <c r="D9">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.66922655537119</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.93095639103550398</v>
+      </c>
+      <c r="H9">
+        <v>1.00465549348231</v>
+      </c>
+      <c r="I9">
+        <v>172</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -5003,8 +5139,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.37737955917024502</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.183</v>
+      </c>
+      <c r="E10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F10">
+        <v>3.67356814415426</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.58547062618682699</v>
+      </c>
+      <c r="H10">
+        <v>0.97579143389199297</v>
+      </c>
+      <c r="I10">
+        <v>183</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -5013,9 +5168,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.60196761252833497</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="E11">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.8380817651782699</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.39330763662419199</v>
+      </c>
+      <c r="H11">
+        <v>0.96275605214152704</v>
+      </c>
+      <c r="I11">
+        <v>187</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5024,8 +5197,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.38160666786537101</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="E12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F12">
+        <v>3.8468165680347801</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.21460706447075401</v>
+      </c>
+      <c r="H12">
+        <v>1.0549348230912501</v>
+      </c>
+      <c r="I12">
+        <v>187</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -5049,7 +5241,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.25237527273285099</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E14">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F14">
+        <v>3.7322246854445198</v>
+      </c>
+      <c r="G14">
+        <v>8.4865703772227893E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.92644320297951599</v>
+      </c>
+      <c r="I14">
+        <v>175</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -5058,7 +5270,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.157457686639985</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E15">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F15">
+        <v>3.66922655537119</v>
+      </c>
+      <c r="G15">
+        <v>0.53225141170525603</v>
+      </c>
+      <c r="H15">
+        <v>1.0279329608938499</v>
+      </c>
+      <c r="I15">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -5067,7 +5299,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.37737955917024502</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.183</v>
+      </c>
+      <c r="E16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F16">
+        <v>3.67356814415426</v>
+      </c>
+      <c r="G16">
+        <v>0.45728690816092699</v>
+      </c>
+      <c r="H16">
+        <v>0.96741154562383602</v>
+      </c>
+      <c r="I16">
+        <v>183</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -5076,8 +5328,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.52469624047888497</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.189</v>
+      </c>
+      <c r="E17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>3.8380817651782699</v>
+      </c>
+      <c r="G17">
+        <v>0.30269229389545099</v>
+      </c>
+      <c r="H17">
+        <v>0.95530726256983201</v>
+      </c>
+      <c r="I17">
+        <v>189</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -5085,6 +5356,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.41364018752689102</v>
+      </c>
+      <c r="D18">
+        <v>0.186</v>
+      </c>
+      <c r="E18">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>3.8468165680347801</v>
+      </c>
+      <c r="G18">
+        <v>0.27442117204866301</v>
+      </c>
+      <c r="H18">
+        <v>1.0484171322160101</v>
+      </c>
+      <c r="I18">
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -5108,7 +5400,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.27762115470089399</v>
+      </c>
+      <c r="D20">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E20">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F20">
+        <v>3.7346507014174999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.27253595550542498</v>
+      </c>
+      <c r="H20">
+        <v>0.95251396648044695</v>
+      </c>
+      <c r="I20">
+        <v>174</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -5117,7 +5429,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.45421868391555398</v>
+      </c>
+      <c r="D21">
+        <v>0.158</v>
+      </c>
+      <c r="E21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F21">
+        <v>3.6708123130042498</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.54639362836421601</v>
+      </c>
+      <c r="H21">
+        <v>1.02700186219739</v>
+      </c>
+      <c r="I21">
+        <v>158</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -5126,7 +5458,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.29109104500900901</v>
+      </c>
+      <c r="D22">
+        <v>0.186</v>
+      </c>
+      <c r="E22">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F22">
+        <v>3.6819079610512699</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.63509395213993403</v>
+      </c>
+      <c r="H22">
+        <v>1.0214152700186201</v>
+      </c>
+      <c r="I22">
+        <v>186</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -5135,7 +5487,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.68434688974033198</v>
+      </c>
+      <c r="D23">
+        <v>0.185</v>
+      </c>
+      <c r="E23">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F23">
+        <v>3.8679700586023298</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.61935014809558E-2</v>
+      </c>
+      <c r="H23">
+        <v>1.09869646182495</v>
+      </c>
+      <c r="I23">
+        <v>185</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -5144,7 +5516,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.26982660382095203</v>
+      </c>
+      <c r="D24">
+        <v>0.191</v>
+      </c>
+      <c r="E24">
+        <v>0.03</v>
+      </c>
+      <c r="F24">
+        <v>3.86702910484063</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4.6017424611041503E-2</v>
+      </c>
+      <c r="H24">
+        <v>1.0884543761638701</v>
+      </c>
+      <c r="I24">
+        <v>191</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -5595,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0B3140-E80F-4DAC-A3E2-9ADB8A68214F}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B96D46C-F411-41A9-8C6D-685266019EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A8AE72-4CEC-4AD1-9B2C-5B9F5C4D0A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -4862,7 +4862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -7835,7 +7835,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:K31"/>
+      <selection activeCell="C2" sqref="C2:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7892,9 +7892,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.498</v>
+      </c>
+      <c r="E2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F2">
+        <v>13.9955059085455</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.6932385252546598E-3</v>
+      </c>
+      <c r="H2">
+        <v>0.87430167597765396</v>
+      </c>
+      <c r="I2">
+        <v>498</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7903,7 +7921,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F3">
+        <v>13.889129095421501</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.1328431013976199E-13</v>
+      </c>
+      <c r="H3">
+        <v>0.707635009310987</v>
+      </c>
+      <c r="I3">
+        <v>487</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7912,7 +7950,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F4">
+        <v>14.0536315413488</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.24561754423197E-10</v>
+      </c>
+      <c r="H4">
+        <v>0.74115456238361299</v>
+      </c>
+      <c r="I4">
+        <v>511</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7921,8 +7979,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F5">
+        <v>13.724122034944701</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.8674647298379701E-8</v>
+      </c>
+      <c r="H5">
+        <v>0.77932960893854797</v>
+      </c>
+      <c r="I5">
+        <v>478</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7931,7 +8008,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F6">
+        <v>13.1226068659139</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.22359699343785E-7</v>
+      </c>
+      <c r="H6">
+        <v>0.78864059590316604</v>
+      </c>
+      <c r="I6">
+        <v>475</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7955,8 +8052,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.12819526498735401</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="F8">
+        <v>15.144868022727101</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.124603430338662</v>
+      </c>
+      <c r="H8">
+        <v>1.0679702048417099</v>
+      </c>
+      <c r="I8">
+        <v>533</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7965,7 +8081,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>4.4128960550052498E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F9">
+        <v>15.472530188731</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.5094134465302303E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.91061452513966501</v>
+      </c>
+      <c r="I9">
+        <v>533</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7974,8 +8110,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>3.9198481136335901E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F10">
+        <v>15.4334300513211</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.6390052310813893E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.92178770949720701</v>
+      </c>
+      <c r="I10">
+        <v>558</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7984,9 +8139,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.117513128148912</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F11">
+        <v>15.0205914258412</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.71124126188985204</v>
+      </c>
+      <c r="H11">
+        <v>0.983240223463687</v>
+      </c>
+      <c r="I11">
+        <v>514</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7995,8 +8168,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>9.7963155681116507E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.254</v>
+      </c>
+      <c r="F12">
+        <v>14.240377602308101</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.72963252502329901</v>
+      </c>
+      <c r="H12">
+        <v>1.01582867783985</v>
+      </c>
+      <c r="I12">
+        <v>513</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -8020,7 +8212,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.50230417905117397</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F14">
+        <v>15.144868022727101</v>
+      </c>
+      <c r="G14">
+        <v>1.27204172490491E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.1108007448789601</v>
+      </c>
+      <c r="I14">
+        <v>514</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -8029,7 +8241,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.26355247728297299</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F15">
+        <v>15.472530188731</v>
+      </c>
+      <c r="G15">
+        <v>0.40566242840851502</v>
+      </c>
+      <c r="H15">
+        <v>0.96368715083798895</v>
+      </c>
+      <c r="I15">
+        <v>513</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -8038,7 +8270,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.42043781459232898</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E16">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F16">
+        <v>15.4334300513211</v>
+      </c>
+      <c r="G16">
+        <v>0.20223469315897299</v>
+      </c>
+      <c r="H16">
+        <v>0.94506517690875202</v>
+      </c>
+      <c r="I16">
+        <v>530</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -8047,8 +8299,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.56080955041175895</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.255</v>
+      </c>
+      <c r="F17">
+        <v>15.0205914258412</v>
+      </c>
+      <c r="G17">
+        <v>0.71352101957502101</v>
+      </c>
+      <c r="H17">
+        <v>1.0167597765363099</v>
+      </c>
+      <c r="I17">
+        <v>492</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -8056,6 +8327,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.62251398283500503</v>
+      </c>
+      <c r="D18">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F18">
+        <v>14.240377602308101</v>
+      </c>
+      <c r="G18">
+        <v>0.71124126188985204</v>
+      </c>
+      <c r="H18">
+        <v>0.983240223463687</v>
+      </c>
+      <c r="I18">
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -8079,7 +8371,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.56096635246873505</v>
+      </c>
+      <c r="D20">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F20">
+        <v>15.056412895658999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.8124648687231497E-3</v>
+      </c>
+      <c r="H20">
+        <v>1.12290502793296</v>
+      </c>
+      <c r="I20">
+        <v>512</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -8088,7 +8400,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.47425644996243499</v>
+      </c>
+      <c r="D21">
+        <v>0.504</v>
+      </c>
+      <c r="E21">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F21">
+        <v>15.544793229869599</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.29240764760120502</v>
+      </c>
+      <c r="H21">
+        <v>0.95437616387337099</v>
+      </c>
+      <c r="I21">
+        <v>504</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8097,7 +8429,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.24436170748994901</v>
+      </c>
+      <c r="D22">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E22">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F22">
+        <v>15.297590776229301</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.40566242840851502</v>
+      </c>
+      <c r="H22">
+        <v>0.96368715083798895</v>
+      </c>
+      <c r="I22">
+        <v>538</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -8106,7 +8458,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.78830522638030198</v>
+      </c>
+      <c r="D23">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F23">
+        <v>14.9519446529089</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.109897115602011</v>
+      </c>
+      <c r="H23">
+        <v>1.0707635009311001</v>
+      </c>
+      <c r="I23">
+        <v>485</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -8115,7 +8487,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.420605306439361</v>
+      </c>
+      <c r="D24">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="E24">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F24">
+        <v>14.287558578919301</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3.0534418724036598E-3</v>
+      </c>
+      <c r="H24">
+        <v>1.1322160148975799</v>
+      </c>
+      <c r="I24">
+        <v>494</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -8200,8 +8592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF9AAFD-684E-44CB-B1B1-CDA94ECB61EF}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8258,9 +8650,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="F2">
+        <v>23.8392270311045</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.7106916296500599E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.91154562383612703</v>
+      </c>
+      <c r="I2">
+        <v>595</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -8269,7 +8679,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F3">
+        <v>23.721473050091902</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.2258993045051399E-7</v>
+      </c>
+      <c r="H3">
+        <v>0.79329608938547502</v>
+      </c>
+      <c r="I3">
+        <v>592</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -8278,7 +8708,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.6</v>
+      </c>
+      <c r="E4">
+        <v>0.378</v>
+      </c>
+      <c r="F4">
+        <v>24.619259269826799</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.1649794115309802E-7</v>
+      </c>
+      <c r="H4">
+        <v>0.79608938547485997</v>
+      </c>
+      <c r="I4">
+        <v>600</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -8287,8 +8737,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="E5">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="F5">
+        <v>23.137793284589701</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.5278222497582999E-10</v>
+      </c>
+      <c r="H5">
+        <v>0.74860335195530703</v>
+      </c>
+      <c r="I5">
+        <v>588</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8297,7 +8766,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.628</v>
+      </c>
+      <c r="E6">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="F6">
+        <v>24.918050678767599</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.00979010696443E-4</v>
+      </c>
+      <c r="H6">
+        <v>0.83891992551210404</v>
+      </c>
+      <c r="I6">
+        <v>628</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -8321,8 +8810,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>1.2743167388968401E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E8">
+        <v>0.42</v>
+      </c>
+      <c r="F8">
+        <v>27.1520071972392</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.27442117204866301</v>
+      </c>
+      <c r="H8">
+        <v>1.0484171322160101</v>
+      </c>
+      <c r="I8">
+        <v>650</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -8331,7 +8839,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>1.1285618646446E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="F9">
+        <v>27.726233948517901</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.51230141415826203</v>
+      </c>
+      <c r="H9">
+        <v>0.97113594040968299</v>
+      </c>
+      <c r="I9">
+        <v>648</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -8340,8 +8868,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>2.1927655780967798E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F10">
+        <v>28.512109027088599</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.66296655585615505</v>
+      </c>
+      <c r="H10">
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="I10">
+        <v>667</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -8350,9 +8897,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>3.7042040480926401E-4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F11">
+        <v>27.292865326193699</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.58547062618682699</v>
+      </c>
+      <c r="H11">
+        <v>0.97579143389199297</v>
+      </c>
+      <c r="I11">
+        <v>666</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -8361,8 +8926,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>2.9412117904185501E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E12">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="F12">
+        <v>28.707328199823799</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.55564710926118299</v>
+      </c>
+      <c r="H12">
+        <v>0.97392923649906904</v>
+      </c>
+      <c r="I12">
+        <v>692</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -8386,7 +8970,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.46454535891614601</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="F14">
+        <v>27.1520071972392</v>
+      </c>
+      <c r="G14">
+        <v>1.51092400541014E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.1080074487895699</v>
+      </c>
+      <c r="I14">
+        <v>612</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -8395,7 +8999,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.19998013764404801</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.621</v>
+      </c>
+      <c r="E15">
+        <v>0.4</v>
+      </c>
+      <c r="F15">
+        <v>27.726233948517901</v>
+      </c>
+      <c r="G15">
+        <v>0.13524327502140501</v>
+      </c>
+      <c r="H15">
+        <v>1.0661080074487901</v>
+      </c>
+      <c r="I15">
+        <v>621</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -8404,7 +9028,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.31283783595431502</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="E16">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="F16">
+        <v>28.512109027088599</v>
+      </c>
+      <c r="G16">
+        <v>0.17145702702179</v>
+      </c>
+      <c r="H16">
+        <v>1.06052141527002</v>
+      </c>
+      <c r="I16">
+        <v>623</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -8413,8 +9057,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>5.4225928780280201E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.4</v>
+      </c>
+      <c r="F17">
+        <v>27.292865326193699</v>
+      </c>
+      <c r="G17">
+        <v>0.10531588909046299</v>
+      </c>
+      <c r="H17">
+        <v>1.07169459962756</v>
+      </c>
+      <c r="I17">
+        <v>631</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -8422,6 +9085,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.111991198300759</v>
+      </c>
+      <c r="D18">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="E18">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="F18">
+        <v>28.707328199823799</v>
+      </c>
+      <c r="G18">
+        <v>0.53225141170525603</v>
+      </c>
+      <c r="H18">
+        <v>1.0279329608938499</v>
+      </c>
+      <c r="I18">
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -8445,7 +9129,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.23359931105956999</v>
+      </c>
+      <c r="D20">
+        <v>0.622</v>
+      </c>
+      <c r="E20">
+        <v>0.374</v>
+      </c>
+      <c r="F20">
+        <v>26.978265468631701</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.66296655585615505</v>
+      </c>
+      <c r="H20">
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="I20">
+        <v>622</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -8454,7 +9158,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.19998013764404801</v>
+      </c>
+      <c r="D21">
+        <v>0.621</v>
+      </c>
+      <c r="E21">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="F21">
+        <v>27.7604581520492</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.845612199802112</v>
+      </c>
+      <c r="H21">
+        <v>1.00931098696462</v>
+      </c>
+      <c r="I21">
+        <v>621</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8463,7 +9187,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.40936492064439001</v>
+      </c>
+      <c r="D22">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F22">
+        <v>28.550432428215</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.93079751496070195</v>
+      </c>
+      <c r="H22">
+        <v>0.99534450651769102</v>
+      </c>
+      <c r="I22">
+        <v>619</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -8472,7 +9216,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>4.3630010152315699E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.4</v>
+      </c>
+      <c r="F23">
+        <v>27.4560456519418</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.98269097858266097</v>
+      </c>
+      <c r="H23">
+        <v>0.99813780260707596</v>
+      </c>
+      <c r="I23">
+        <v>633</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -8481,7 +9245,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.28396748308965197</v>
+      </c>
+      <c r="D24">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F24">
+        <v>28.730993826353</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.98269097858266097</v>
+      </c>
+      <c r="H24">
+        <v>0.99813780260707596</v>
+      </c>
+      <c r="I24">
+        <v>652</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFD7ED6-7672-40CF-BD09-9275919980CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEFAB6B-7393-434D-A595-1E17AAD132A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="9" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="12" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -11597,7 +11597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7278DC-9F10-4A42-A952-30AC21A8E626}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:I32"/>
     </sheetView>
   </sheetViews>
@@ -12456,7 +12456,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12513,9 +12513,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.2150495664655501</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5342623590650699E-7</v>
+      </c>
+      <c r="H2">
+        <v>0.79607109448082303</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -12524,7 +12542,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.12839062658546</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.0956975971422401E-5</v>
+      </c>
+      <c r="H3">
+        <v>0.818521983161833</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -12533,7 +12571,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.2760604303007801</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.9436884521800902E-7</v>
+      </c>
+      <c r="H4">
+        <v>0.79232927970065503</v>
+      </c>
+      <c r="I4">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -12542,8 +12600,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.3691183817179</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.1734311473665101E-14</v>
+      </c>
+      <c r="H5">
+        <v>0.69317118802619304</v>
+      </c>
+      <c r="I5">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -12552,7 +12629,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.22596233212573</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.7061000728472501E-8</v>
+      </c>
+      <c r="H6">
+        <v>0.77362020579981305</v>
+      </c>
+      <c r="I6">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -12576,8 +12673,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.65451258732448103</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.32072625371634</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.69687816793850199</v>
+      </c>
+      <c r="H8">
+        <v>1.0177736202058001</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -12586,7 +12702,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.72554060986773705</v>
+      </c>
+      <c r="D9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.20353018902568</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.476645580740444</v>
+      </c>
+      <c r="H9">
+        <v>1.03180542563143</v>
+      </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -12595,8 +12731,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.394719628972375</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.3954063950926201</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8.7789978254169204E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.07577174929841</v>
+      </c>
+      <c r="I10">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -12605,9 +12760,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.60296523801422097</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.48360360456142</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.24333657329972999</v>
+      </c>
+      <c r="H11">
+        <v>0.94948550046772695</v>
+      </c>
+      <c r="I11">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -12616,8 +12789,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.76782625726150699</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.3102962557052</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.41300861775629299</v>
+      </c>
+      <c r="H12">
+        <v>1.0364826941066401</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -12641,7 +12833,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.65451258732448103</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.32072625371634</v>
+      </c>
+      <c r="G14">
+        <v>0.66528970704414003</v>
+      </c>
+      <c r="H14">
+        <v>1.0196445275958801</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -12650,7 +12862,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.72554060986773705</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.20353018902568</v>
+      </c>
+      <c r="G15">
+        <v>0.49000653072858003</v>
+      </c>
+      <c r="H15">
+        <v>1.0308699719363901</v>
+      </c>
+      <c r="I15">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -12659,7 +12891,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.394719628972375</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.3954063950926201</v>
+      </c>
+      <c r="G16">
+        <v>0.100123783187647</v>
+      </c>
+      <c r="H16">
+        <v>1.0729653882132799</v>
+      </c>
+      <c r="I16">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -12668,8 +12920,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.60296523801422097</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.48360360456142</v>
+      </c>
+      <c r="G17">
+        <v>0.24333657329972999</v>
+      </c>
+      <c r="H17">
+        <v>0.94948550046772695</v>
+      </c>
+      <c r="I17">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -12677,6 +12948,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.76782625726150699</v>
+      </c>
+      <c r="D18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.3102962557052</v>
+      </c>
+      <c r="G18">
+        <v>0.46349259091093797</v>
+      </c>
+      <c r="H18">
+        <v>1.0327408793264701</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -12700,7 +12992,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.55489645925832498</v>
+      </c>
+      <c r="D20">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.32522916695027</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4.7831656771096999E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.0879326473339599</v>
+      </c>
+      <c r="I20">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -12709,7 +13021,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.1926766110500699</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.354824688066741</v>
+      </c>
+      <c r="H21">
+        <v>1.04115996258185</v>
+      </c>
+      <c r="I21">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -12718,7 +13050,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.21437626103330201</v>
+      </c>
+      <c r="D22">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.41106354666492</v>
+      </c>
+      <c r="G22" s="1">
+        <v>9.32307487013595E-3</v>
+      </c>
+      <c r="H22">
+        <v>1.1159962581852201</v>
+      </c>
+      <c r="I22">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -12727,7 +13079,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.51887660115207701</v>
+      </c>
+      <c r="D23">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E23">
+        <v>1E-3</v>
+      </c>
+      <c r="F23">
+        <v>1.47615310196623</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.343855478949049</v>
+      </c>
+      <c r="H23">
+        <v>1.0420954162768901</v>
+      </c>
+      <c r="I23">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -12736,7 +13108,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.31992458665918</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.43782064249124603</v>
+      </c>
+      <c r="H24">
+        <v>1.0346117867165601</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -12760,7 +13152,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1.2158379701242401</v>
+      </c>
+      <c r="G26" s="1">
+        <v>7.4017011410996503E-7</v>
+      </c>
+      <c r="H26">
+        <v>0.79700654817586503</v>
+      </c>
+      <c r="I26">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -12769,7 +13181,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.1069761523900701</v>
+      </c>
+      <c r="G27" s="1">
+        <v>9.3305120268667296E-8</v>
+      </c>
+      <c r="H27">
+        <v>0.78203928905519204</v>
+      </c>
+      <c r="I27">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -12778,7 +13210,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>0.88142157508693997</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1.28321214404266</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3.9685421458759304E-6</v>
+      </c>
+      <c r="H28">
+        <v>0.81010289990645501</v>
+      </c>
+      <c r="I28">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -12787,7 +13239,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.3718950019138001</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7.8261967396273199E-15</v>
+      </c>
+      <c r="H29">
+        <v>0.69130028063610804</v>
+      </c>
+      <c r="I29">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -12796,7 +13268,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.2113353283341799</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.51519743621128E-10</v>
+      </c>
+      <c r="H30">
+        <v>0.74462114125350798</v>
+      </c>
+      <c r="I30">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -12822,7 +13314,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12879,9 +13371,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="E2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F2">
+        <v>2.7201189066806402</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7.2413706227980204E-12</v>
+      </c>
+      <c r="H2">
+        <v>0.724976613657624</v>
+      </c>
+      <c r="I2">
+        <v>128</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -12890,7 +13400,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.87267522009431</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.35601697955741E-7</v>
+      </c>
+      <c r="H3">
+        <v>0.78858746492048604</v>
+      </c>
+      <c r="I3">
+        <v>118</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -12899,7 +13429,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F4">
+        <v>2.3568711052465798</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.6484813115045696E-19</v>
+      </c>
+      <c r="H4">
+        <v>0.65201122544434098</v>
+      </c>
+      <c r="I4">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -12908,8 +13458,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.129</v>
+      </c>
+      <c r="E5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9467345913985299</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.7550657911559394E-11</v>
+      </c>
+      <c r="H5">
+        <v>0.73713751169317099</v>
+      </c>
+      <c r="I5">
+        <v>129</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -12918,7 +13487,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F6">
+        <v>2.75163644751493</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.2164712797045399E-16</v>
+      </c>
+      <c r="H6">
+        <v>0.67913938260056095</v>
+      </c>
+      <c r="I6">
+        <v>116</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -12942,8 +13531,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.36036881732197801</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F8">
+        <v>2.9977081158083601</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.61906702548928905</v>
+      </c>
+      <c r="H8">
+        <v>1.02245088868101</v>
+      </c>
+      <c r="I8">
+        <v>143</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -12952,7 +13560,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.31214554519749799</v>
+      </c>
+      <c r="D9">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="E9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.0817806900928502</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.21734977044453599</v>
+      </c>
+      <c r="H9">
+        <v>0.94667913938260095</v>
+      </c>
+      <c r="I9">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -12961,8 +13589,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.43574522357162598</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.6095209205454801</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.3303772518560004E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.07951356407858</v>
+      </c>
+      <c r="I10">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -12971,9 +13618,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.21941378716666399</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="E11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.2136926585329002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.96530123371022503</v>
+      </c>
+      <c r="H11">
+        <v>0.997193638914874</v>
+      </c>
+      <c r="I11">
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -12982,8 +13647,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.25038704653830501</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="E12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>3.01043145257748</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.5628083782770702E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.91487371375116899</v>
+      </c>
+      <c r="I12">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -13007,7 +13691,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.51089418357224303</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F14">
+        <v>2.9977081158083601</v>
+      </c>
+      <c r="G14">
+        <v>0.81154426879234898</v>
+      </c>
+      <c r="H14">
+        <v>1.01122544434051</v>
+      </c>
+      <c r="I14">
+        <v>139</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -13016,7 +13720,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.28179872942164103</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E15">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F15">
+        <v>3.0817806900928502</v>
+      </c>
+      <c r="G15">
+        <v>0.252456651001293</v>
+      </c>
+      <c r="H15">
+        <v>0.95042095416276895</v>
+      </c>
+      <c r="I15">
+        <v>135</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -13025,7 +13749,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.43574522357162598</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F16">
+        <v>2.6095209205454801</v>
+      </c>
+      <c r="G16">
+        <v>8.0278552304675302E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.07764265668849</v>
+      </c>
+      <c r="I16">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -13034,8 +13778,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.243933155651469</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E17">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>3.2136926585329002</v>
+      </c>
+      <c r="G17">
+        <v>0.93079596181770596</v>
+      </c>
+      <c r="H17">
+        <v>1.0046772684752101</v>
+      </c>
+      <c r="I17">
+        <v>148</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -13043,6 +13806,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.123708292402018</v>
+      </c>
+      <c r="D18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E18">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F18">
+        <v>3.01043145257748</v>
+      </c>
+      <c r="G18">
+        <v>2.920452480055E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.907390084190833</v>
+      </c>
+      <c r="I18">
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -13066,7 +13850,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.89403727227337304</v>
+      </c>
+      <c r="D20">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="E20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F20">
+        <v>2.9160550632851701</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.5326733058280099E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.08512628624883</v>
+      </c>
+      <c r="I20">
+        <v>131</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -13075,7 +13879,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.681325447917427</v>
+      </c>
+      <c r="D21">
+        <v>0.125</v>
+      </c>
+      <c r="E21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F21">
+        <v>2.9826532922033402</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.46967902049314902</v>
+      </c>
+      <c r="H21">
+        <v>0.96819457436856904</v>
+      </c>
+      <c r="I21">
+        <v>125</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -13084,7 +13908,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>8.2257837748329996E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.109</v>
+      </c>
+      <c r="E22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F22">
+        <v>2.6353212192964302</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.113820547527844</v>
+      </c>
+      <c r="H22">
+        <v>1.07015902712816</v>
+      </c>
+      <c r="I22">
+        <v>109</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -13093,7 +13937,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.47165742528335602</v>
+      </c>
+      <c r="D23">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>3.14217662644025</v>
+      </c>
+      <c r="G23" s="1">
+        <v>9.8971994862270592E-3</v>
+      </c>
+      <c r="H23">
+        <v>1.11506080449018</v>
+      </c>
+      <c r="I23">
+        <v>141</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -13102,7 +13966,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.413119118486449</v>
+      </c>
+      <c r="D24">
+        <v>0.129</v>
+      </c>
+      <c r="E24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F24">
+        <v>2.9700980003244699</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.111353849172696</v>
+      </c>
+      <c r="H24">
+        <v>0.93171188026192697</v>
+      </c>
+      <c r="I24">
+        <v>129</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -13126,7 +14010,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="E26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F26">
+        <v>2.7560217371371798</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.6246334240772202E-9</v>
+      </c>
+      <c r="H26">
+        <v>0.75865294667913896</v>
+      </c>
+      <c r="I26">
+        <v>127</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -13135,7 +14039,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.01</v>
+      </c>
+      <c r="F27">
+        <v>2.8464001962900198</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.5466240972055398E-9</v>
+      </c>
+      <c r="H27">
+        <v>0.76052385406922396</v>
+      </c>
+      <c r="I27">
+        <v>118</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -13144,7 +14068,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F28">
+        <v>2.4153577959606598</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6.5470751974439904E-10</v>
+      </c>
+      <c r="H28">
+        <v>0.75023386342376097</v>
+      </c>
+      <c r="I28">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -13153,7 +14097,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E29">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F29">
+        <v>2.95480880878352</v>
+      </c>
+      <c r="G29" s="1">
+        <v>9.4231613585725895E-11</v>
+      </c>
+      <c r="H29">
+        <v>0.73900841908325499</v>
+      </c>
+      <c r="I29">
+        <v>130</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -13162,7 +14126,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E30">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F30">
+        <v>2.7668447387839801</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4.7279695789492599E-14</v>
+      </c>
+      <c r="H30">
+        <v>0.69971936389148703</v>
+      </c>
+      <c r="I30">
+        <v>116</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -13187,8 +14171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61634976-D30A-4F21-A3DC-4D0E6EADF5B4}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13245,9 +14229,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F2">
+        <v>4.4334674772728597</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.0009534647032699E-4</v>
+      </c>
+      <c r="H2">
+        <v>0.84939195509822296</v>
+      </c>
+      <c r="I2">
+        <v>211</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -13256,7 +14258,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.23</v>
+      </c>
+      <c r="E3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.4889886201045899</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.5792922014949698E-8</v>
+      </c>
+      <c r="H3">
+        <v>0.77549111318989705</v>
+      </c>
+      <c r="I3">
+        <v>230</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -13265,7 +14287,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.2459328833992496</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.7550657911559394E-11</v>
+      </c>
+      <c r="H4">
+        <v>0.73713751169317099</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -13274,8 +14316,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F5">
+        <v>4.4784162715019402</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.5470751974439904E-10</v>
+      </c>
+      <c r="H5">
+        <v>0.75023386342376097</v>
+      </c>
+      <c r="I5">
+        <v>209</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -13284,7 +14345,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F6">
+        <v>4.5228197498128599</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.4793538597460997E-7</v>
+      </c>
+      <c r="H6">
+        <v>0.79887745556594902</v>
+      </c>
+      <c r="I6">
+        <v>227</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -13308,8 +14389,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>7.8607073141752207E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="E8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F8">
+        <v>4.7649265556311802</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.3627194268624302E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.09448082319925</v>
+      </c>
+      <c r="I8">
+        <v>245</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -13318,7 +14418,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.19244210996803501</v>
+      </c>
+      <c r="D9">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.06</v>
+      </c>
+      <c r="F9">
+        <v>4.8579101680409602</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.450550158337017</v>
+      </c>
+      <c r="H9">
+        <v>1.03367633302152</v>
+      </c>
+      <c r="I9">
+        <v>256</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -13327,8 +14447,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.14100001299009601</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F10">
+        <v>4.6971715423999196</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.86223748987700699</v>
+      </c>
+      <c r="H10">
+        <v>1.0084190832553801</v>
+      </c>
+      <c r="I10">
+        <v>228</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -13337,9 +14476,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1.7134120170310199E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="E11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F11">
+        <v>4.96087318321318</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.41713488480052502</v>
+      </c>
+      <c r="H11">
+        <v>0.96445275958840004</v>
+      </c>
+      <c r="I11">
+        <v>255</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -13348,8 +14505,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.15806039199279301</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="E12">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F12">
+        <v>5.0469557239484999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.28273607409613999</v>
+      </c>
+      <c r="H12">
+        <v>1.0477081384471501</v>
+      </c>
+      <c r="I12">
+        <v>255</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -13373,7 +14549,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.58718427295284403</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="E14">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F14">
+        <v>4.7649265556311802</v>
+      </c>
+      <c r="G14">
+        <v>0.22956969804734501</v>
+      </c>
+      <c r="H14">
+        <v>1.0533208606174</v>
+      </c>
+      <c r="I14">
+        <v>222</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -13382,7 +14578,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.59820185809198601</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E15">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>4.8579101680409602</v>
+      </c>
+      <c r="G15">
+        <v>0.69433422727046301</v>
+      </c>
+      <c r="H15">
+        <v>0.98222637979420002</v>
+      </c>
+      <c r="I15">
+        <v>241</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -13391,7 +14607,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.22834834074968699</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.223</v>
+      </c>
+      <c r="E16">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F16">
+        <v>4.6971715423999196</v>
+      </c>
+      <c r="G16">
+        <v>0.51734073103997702</v>
+      </c>
+      <c r="H16">
+        <v>1.0289990645463001</v>
+      </c>
+      <c r="I16">
+        <v>223</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -13400,8 +14636,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>9.6917145649688299E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.05</v>
+      </c>
+      <c r="F17">
+        <v>4.96087318321318</v>
+      </c>
+      <c r="G17">
+        <v>0.79361421206506499</v>
+      </c>
+      <c r="H17">
+        <v>0.98783910196445301</v>
+      </c>
+      <c r="I17">
+        <v>241</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -13409,6 +14664,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.343541625955125</v>
+      </c>
+      <c r="D18">
+        <v>0.246</v>
+      </c>
+      <c r="E18">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F18">
+        <v>5.0469557239484999</v>
+      </c>
+      <c r="G18">
+        <v>0.104533335826747</v>
+      </c>
+      <c r="H18">
+        <v>1.07202993451824</v>
+      </c>
+      <c r="I18">
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -13432,7 +14708,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.785155406054593</v>
+      </c>
+      <c r="D20">
+        <v>0.217</v>
+      </c>
+      <c r="E20">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F20">
+        <v>4.5808224715461598</v>
+      </c>
+      <c r="G20" s="1">
+        <v>8.2638436322981599E-3</v>
+      </c>
+      <c r="H20">
+        <v>1.1178671655753001</v>
+      </c>
+      <c r="I20">
+        <v>217</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -13441,7 +14737,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.95756001796965295</v>
+      </c>
+      <c r="D21">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E21">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F21">
+        <v>4.6803399149886298</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.16449130087843</v>
+      </c>
+      <c r="H21">
+        <v>0.94013096351730596</v>
+      </c>
+      <c r="I21">
+        <v>228</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -13450,7 +14766,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.378481864474015</v>
+      </c>
+      <c r="D22">
+        <v>0.217</v>
+      </c>
+      <c r="E22">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F22">
+        <v>4.5565391038707697</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.96530123371022503</v>
+      </c>
+      <c r="H22">
+        <v>0.997193638914874</v>
+      </c>
+      <c r="I22">
+        <v>217</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -13459,7 +14795,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.330047253758045</v>
+      </c>
+      <c r="D23">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E23">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F23">
+        <v>4.8766460744668203</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.17048819928654499</v>
+      </c>
+      <c r="H23">
+        <v>1.06080449017774</v>
+      </c>
+      <c r="I23">
+        <v>228</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -13468,7 +14824,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.59656993475118703</v>
+      </c>
+      <c r="D24">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E24">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F24">
+        <v>4.8613339622367997</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.41300861775629299</v>
+      </c>
+      <c r="H24">
+        <v>1.0364826941066401</v>
+      </c>
+      <c r="I24">
+        <v>238</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -13492,7 +14868,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>0.82573545854382502</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E26">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F26">
+        <v>4.3668823594574997</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.6937693721094401E-5</v>
+      </c>
+      <c r="H26">
+        <v>0.82226379794200199</v>
+      </c>
+      <c r="I26">
+        <v>206</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -13510,7 +14906,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E28">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F28">
+        <v>4.2844504132483197</v>
+      </c>
+      <c r="G28" s="1">
+        <v>8.9564585834044901E-10</v>
+      </c>
+      <c r="H28">
+        <v>0.75210477081384497</v>
+      </c>
+      <c r="I28">
+        <v>200</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -13519,7 +14935,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="E29">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F29">
+        <v>4.482207143178</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.0464841164651101E-9</v>
+      </c>
+      <c r="H29">
+        <v>0.75304022450888697</v>
+      </c>
+      <c r="I29">
+        <v>208</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -13528,7 +14964,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>0.95749466770175096</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E30">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F30">
+        <v>4.5675791218043802</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8.7807579036329303E-6</v>
+      </c>
+      <c r="H30">
+        <v>0.816651075771749</v>
+      </c>
+      <c r="I30">
+        <v>229</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEFAB6B-7393-434D-A595-1E17AAD132A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A70241F-C9B2-46E0-B016-7D40454B1D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="12" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -245,13 +245,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1202,7 +1201,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I26"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1404,13 +1403,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4666666666666672E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3139712473499934</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6648847403061722E-6</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73807296538821332</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1564,13 +1584,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>4.9196813567565195E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>0.25233333333333335</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5333333333333339E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8118469300398239</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6152630557438693</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0227627065793568</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>252.33333333333334</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1724,12 +1765,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>0.28093413663768935</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6666666666666662E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8118469300398239</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.27215598030394117</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.05581540380418</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1883,13 +1946,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>0.45761733249195569</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>4.6159418364602134</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23974364290255415</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.99158091674462201</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1943,11 +2027,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2" t="e">
+        <f>AVERAGE(C28:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="2" t="e">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D28:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1960,7 +2067,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I32"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2162,13 +2269,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>9.566666666666666E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97380954114249929</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1791012707990957E-7</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75584658559401297</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>95.666666666666671</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2322,13 +2450,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>6.2536328723498569E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>1.2533333333333332E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0614022534790235</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.53808326013541341</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0293108824446546</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>125.33333333333333</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2482,12 +2631,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>6.4672595869764635E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>1.2566666666666665E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0614022534790235</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.545488303193018</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0299345182413451</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>125.66666666666667</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2641,13 +2812,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>3.676491948354748E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>1.34E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0778567883762133</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17055004123883546</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0570626753975689</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -2801,11 +2993,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C28:C30)</f>
+        <v>0.88488203349535333</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D28:D30)</f>
+        <v>9.8333333333333328E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.97774537760070135</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.186997189368533E-7</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.76333021515434962</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="4"/>
+        <v>98.333333333333329</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2819,7 +3034,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I31"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3021,13 +3236,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>1.6833333333333336E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1539757628906269</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1656414447070768E-8</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7517929529154973</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>168.33333333333334</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3181,13 +3417,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>3.0064653553921794E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>2.1566666666666665E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667E-5</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2472859790962099</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55757083981134203</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999944</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>215.66666666666666</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -3341,12 +3598,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>3.223440376407239E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>2.1566666666666665E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2472859790962099</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.60887288937422968</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.998752728406612</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>215.66666666666666</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -3500,13 +3779,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>1.7848806751206505E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>2.1599999999999998E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2474524538189</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.50735223785795425</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0396008730901152</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -3660,11 +3960,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C28:C30)</f>
+        <v>0.98497361939672967</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D28:D30)</f>
+        <v>1.6766666666666669E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>6.666666666666667E-5</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1510265991290833</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>6.2809008902346307E-9</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.7517929529154973</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="4"/>
+        <v>167.66666666666666</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3677,7 +4000,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I32"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3879,13 +4202,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>2.5766666666666663E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3403193223406269</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.821895050855127E-7</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.76488930464608662</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>257.66666666666669</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -4039,13 +4383,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>2.4052861535209954E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>3.3400000000000006E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3333333333333334E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4672631886894834</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51639990995151941</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0305581540380402</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>334</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -4199,12 +4564,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>2.2358203402615298E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>3.323333333333333E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>7.3333333333333334E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4672631886894834</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36105213773957673</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0411599625818533</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>332.33333333333331</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -4358,13 +4745,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>6.315284137399361E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>3.3266666666666667E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>5.666666666666666E-4</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4548603916392164</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48559376356595924</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0224508886810113</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>332.66666666666669</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -4518,11 +4926,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C28:C30)</f>
+        <v>0.53963372489111405</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D28:D30)</f>
+        <v>2.8166666666666663E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3654358622185365</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>6.9713432977754272E-2</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.82694106641721232</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="4"/>
+        <v>281.66666666666669</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4535,7 +4966,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I32"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4737,13 +5168,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>0.16033333333333333</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5333333333333332E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2795561609566328</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3704457304925038E-7</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7548106765983863</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>160.33333333333334</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -4897,13 +5349,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>0.16033333333333333</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5333333333333332E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2795561609566328</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3704457304925038E-7</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7548106765983863</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>160.33333333333334</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -5057,12 +5530,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>0.51581500280654402</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>0.17233333333333334</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9666666666666669E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5312543487545032</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.51907777981687064</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98355058969584241</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>172.33333333333334</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -5216,13 +5711,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>0.51124467059488532</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>0.17233333333333334</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9666666666666669E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5312543487545032</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.61580609587828905</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.98603351955307428</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>172.33333333333334</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -5393,7 +5909,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I24"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5595,13 +6111,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>0.46566666666666667</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.221</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>13.645696766802301</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4921486793332168E-6</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.76474239602731231</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>465.66666666666669</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -5755,13 +6292,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>0.10232943115297927</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>0.505</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27566666666666667</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>15.126206690528369</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51101827275152301</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.98261949099938006</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>505</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -5915,12 +6473,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>0.36279663395073641</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>0.48733333333333334</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24566666666666667</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>15.126206690528369</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.34443539733805539</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0257603972687772</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>487.33333333333331</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -6074,13 +6654,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>0.39249633059099071</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>0.48633333333333334</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25466666666666665</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>15.142598010933668</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10717148130530894</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0865921787709467</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>486.33333333333331</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -6151,7 +6752,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I26"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6353,13 +6954,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>0.57499999999999984</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>22.343120950184101</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6285507184654747E-9</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71911855990068307</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>575</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -6513,13 +7135,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>5.4614538011494365E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>26.250258487447198</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30185554170121315</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.94816883923029172</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>638</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -6673,12 +7316,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>0.29753297310249766</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>0.59900000000000009</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.38133333333333336</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>26.250258487447198</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.49128682811225405</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0313469894475469</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>599</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -6832,13 +7497,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>0.23363218271479461</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.37966666666666665</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>26.476772730932534</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41267173707672367</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.96585971446306695</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>604</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -6909,7 +7595,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I26"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7111,13 +7797,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>1.8533333333333332E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1745923938046134</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3497629603460443E-11</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71849782743637503</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>185.33333333333334</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7271,13 +7978,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>6.1023391056493022E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>2.3266666666666668E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2725909350006399</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46102133633650338</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.96710117939168239</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>232.66666666666666</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -7431,12 +8159,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>6.097563466126938E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2725909350006399</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45073665740959595</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9661700806952207</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>233</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -7590,13 +8340,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>3.5795333969009857E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>2.3633333333333336E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2898186028044201</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.43938887284103839</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0459342023587832</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>236.33333333333334</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -7667,7 +8438,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I26"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7869,13 +8640,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>9.743333333333333E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8666666666666668E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4563936400414703</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0573260466904513E-6</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79857231533209239</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>974.33333333333337</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -8029,13 +8821,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>4.1955679186424477E-4</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>0.11420000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>9.566666666666666E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6806790538603864</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64877030233362531</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0254500310366232</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>1142</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -8189,12 +9002,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>8.1888447246062756E-4</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>0.11299999999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>9.3999999999999986E-3</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6806790538603864</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36548165262286636</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0443823711980134</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>1130</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -8348,13 +9183,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>4.1627460683032096E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>0.11123333333333334</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>8.7666666666666674E-3</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6503129004881933</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.49120778749679367</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0307262569832398</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>1112.3333333333333</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -8425,7 +9281,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I24"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8627,13 +9483,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>0.15016666666666667</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8766666666666668E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.28619705480128</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5109607117286958E-9</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.72160148975791438</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>1501.6666666666667</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -8787,13 +9664,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>3.4928619042471002E-10</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>0.18753333333333333</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9833333333333333E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7823687021752961</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35083570308459128</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0586592178770966</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>1875.3333333333333</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -8947,12 +9845,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>1.5350895945839048E-6</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>0.17976666666666666</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7200000000000002E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7823687021752961</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>7.3417639000103632E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.09373060211049</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>1797.6666666666667</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -9106,13 +10026,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>7.7460783341086004E-6</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>0.17743333333333333</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5866666666666666E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.7499304524298664</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18483362813221205</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.038795779019241</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>1774.3333333333333</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -9182,8 +10123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9386,13 +10327,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>0.17166666666666666</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1333333333333333E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4970918412088134</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3597056826869041E-8</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7380509000620733</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>171.66666666666666</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -9546,13 +10508,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>0.45365127985465037</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>0.18566666666666665</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5666666666666667E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7861554924557699</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.39779510909392429</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99782743637492333</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>185.66666666666666</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -9706,12 +10689,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>0.43857199572534028</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>0.18600000000000003</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7861554924557699</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.34480012470168031</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99037864680322618</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -9865,13 +10870,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>0.41508817952343097</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>0.18733333333333335</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8056357081647434</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23576829274397712</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0695220360024802</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>187.33333333333334</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -9942,7 +10968,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10144,13 +11170,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>8.0666666666666664E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95282960516516846</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3753490452162167E-8</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73807296538821332</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>80.666666666666671</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -10266,13 +11313,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>6.2808997680729853E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>1.1650000000000001E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.049304930335075</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58917721723440808</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0243217960710951</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>116.5</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -10387,12 +11455,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>6.2808997680729853E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>1.1650000000000001E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.049304930335075</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.59671548118974549</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0238540692235749</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>116.5</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -10546,13 +11636,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>8.3736870246299056E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>1.17E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0577617193564934</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24622878327859876</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0829435609604001</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -10706,11 +11817,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C28:C30)</f>
+        <v>0.920527033070759</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D28:D30)</f>
+        <v>8.1666666666666676E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.956001176835518</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6505234606809581E-9</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.74586841284689731</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="4"/>
+        <v>81.666666666666671</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10723,7 +11857,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10925,13 +12059,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>1.7133333333333334E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1600251112840834</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.00762065690176E-5</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80667290302463324</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>171.33333333333334</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -11085,13 +12240,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>2.68645142845996E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>2.1633333333333338E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2495016038252267</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38974792253628676</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0573744932959166</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>216.33333333333334</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -11245,12 +12421,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>3.7291884765853787E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>2.1500000000000002E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333334E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2495016038252267</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.37971186466210322</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0567508574992202</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -11404,13 +12602,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>0.10197350135863011</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>2.1166666666666667E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>1E-4</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2633197802825</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2775049751936462</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0997817274711583</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>211.66666666666666</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -11564,11 +12783,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C28:C30)</f>
+        <v>0.98506562781786633</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D28:D30)</f>
+        <v>1.7200000000000003E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>6.666666666666667E-5</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.15336113831498</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9727742803767144E-5</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.79669473027751769</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="4"/>
+        <v>172</v>
+      </c>
     </row>
     <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -11598,7 +12840,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I32"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11800,13 +13042,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2991606827444935</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.518513385199395E-10</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.70221390707826625</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -11960,13 +13223,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>1.8433745794137871E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>3.1166666666666665E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4269860553331799</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.56216679565286498</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0006236357966942</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>311.66666666666669</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -12120,12 +13404,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>7.6502209188602397E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6666666666666668E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4269860553331799</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.6731982546377967</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99657000311818067</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>317</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -12279,13 +13585,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>1.0478803059711293E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>3.0666666666666665E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666663E-4</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4263303319973899</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.32345220142390135</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0449017773620202</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>306.66666666666669</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -12439,11 +13766,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C28:C30)</f>
+        <v>0.62052016173796032</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D28:D30)</f>
+        <v>2.5566666666666665E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3097743884960102</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>7.8656505061412171E-11</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.73027751792952922</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="4"/>
+        <v>255.66666666666666</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12456,7 +13806,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I32"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12658,13 +14008,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>2.4000000000000004E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.29038038138147</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4047661922693099E-7</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75304022450888697</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -12818,13 +14189,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>0.58850370808270103</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3964354184530803</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24804505643673072</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0205799812909258</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -12978,12 +14370,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>0.58850370808270103</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3964354184530803</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.26898431579943832</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0183972560024923</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -13137,13 +14551,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>0.577750954061793</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>2.9666666666666664E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4023804117634435</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2636663987701437</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0642344870595568</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>29.666666666666668</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -13297,11 +14732,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C28:C30)</f>
+        <v>0.96047385836231325</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D28:D30)</f>
+        <v>2.466666666666667E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2888141580968802</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3229312244819161E-6</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.74867477393202364</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="4"/>
+        <v>24.666666666666668</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13314,7 +14772,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13516,13 +14974,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>0.11</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6666666666666663E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6850807147200135</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2517060107845168E-11</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68942937324602427</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -13676,13 +15155,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>0.30184868575886498</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>0.12633333333333333</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2666666666666666E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9445483438852871</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36141103000385194</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99719363891487423</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>126.33333333333333</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -13836,12 +15336,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>0.26779555720837095</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>0.128</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000002E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9445483438852871</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.34675967964097709</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99657000311817778</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -13995,13 +15517,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>0.32234479383937836</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>0.12633333333333333</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2666666666666666E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9158652820203836</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>7.8357198728922342E-2</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0389772372934223</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>126.33333333333333</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -14155,11 +15698,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C28:C30)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D28:D30)</f>
+        <v>0.11033333333333334</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>9.6666666666666654E-3</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.7123371145093866</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4966213767530486E-10</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.72965388213283433</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="4"/>
+        <v>110.33333333333333</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14171,8 +15737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61634976-D30A-4F21-A3DC-4D0E6EADF5B4}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14374,13 +15940,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7" si="0">AVERAGE(D4:D6)</f>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7" si="1">AVERAGE(E4:E6)</f>
+        <v>3.8333333333333337E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7" si="2">AVERAGE(F4:F6)</f>
+        <v>4.4157229682380175</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ref="G7" si="3">AVERAGE(G4:G6)</f>
+        <v>3.1621921471742199E-7</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7" si="4">AVERAGE(H4:H6)</f>
+        <v>0.7620829435609604</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ref="I7" si="5">AVERAGE(I4:I6)</f>
+        <v>212</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -14534,13 +16121,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>0.10539817505106641</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="6">AVERAGE(D10:D12)</f>
+        <v>0.246</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13" si="7">AVERAGE(E10:E12)</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ref="F13" si="8">AVERAGE(F10:F12)</f>
+        <v>4.9016668165205326</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13" si="9">AVERAGE(G10:G12)</f>
+        <v>0.52070281625789072</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13" si="10">AVERAGE(H10:H12)</f>
+        <v>1.0068599937636433</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" ref="I13" si="11">AVERAGE(I10:I12)</f>
+        <v>246</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -14694,12 +16302,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>0.22293570411816677</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19" si="12">AVERAGE(D16:D18)</f>
+        <v>0.23666666666666666</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" ref="E19" si="13">AVERAGE(E16:E18)</f>
+        <v>4.8333333333333332E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19" si="14">AVERAGE(F16:F18)</f>
+        <v>4.9016668165205326</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" ref="G19" si="15">AVERAGE(G16:G18)</f>
+        <v>0.47182942631059638</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" ref="H19" si="16">AVERAGE(H16:H18)</f>
+        <v>1.0296227003429976</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" ref="I19" si="17">AVERAGE(I16:I18)</f>
+        <v>236.66666666666666</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -14853,13 +16483,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>0.43503301766108232</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25" si="18">AVERAGE(D22:D24)</f>
+        <v>0.22766666666666668</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25" si="19">AVERAGE(E22:E24)</f>
+        <v>4.6333333333333331E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" ref="F25" si="20">AVERAGE(F22:F24)</f>
+        <v>4.7648397135247968</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" ref="G25" si="21">AVERAGE(G22:G24)</f>
+        <v>0.5162660169176877</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" ref="H25" si="22">AVERAGE(H22:H24)</f>
+        <v>1.0314936077330847</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" ref="I25" si="23">AVERAGE(I22:I24)</f>
+        <v>227.66666666666666</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -14993,11 +16644,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C28:C30)</f>
+        <v>0.98583155590058358</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:I31" si="24">AVERAGE(D28:D30)</f>
+        <v>0.21233333333333335</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="24"/>
+        <v>4.0333333333333332E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="24"/>
+        <v>4.4447455594102339</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="24"/>
+        <v>2.9275666778692454E-6</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="24"/>
+        <v>0.77393202369816028</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="24"/>
+        <v>212.33333333333334</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15009,8 +16683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2C081E-92D6-4B78-B185-DCBA62E5C9BB}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15212,13 +16886,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2273333333333333</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>13.633453480735801</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.3719636132195967E-8</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7697082557417757</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>488</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -15372,13 +17067,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>8.4891588322121472E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>0.52833333333333332</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>14.898133026490134</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50242127974132167</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97361887026691463</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>528.33333333333337</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -15532,12 +17248,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>0.53458711594636432</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>0.503</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25033333333333335</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>14.898133026490134</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.54233232487461536</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98168839230291638</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>503</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -15691,13 +17429,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>0.48442408010320398</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>0.50566666666666671</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.252</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>14.845698002685834</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17287099529430991</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0555555555555562</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>505.66666666666669</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -15767,8 +17526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF9AAFD-684E-44CB-B1B1-CDA94ECB61EF}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15970,13 +17729,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>0.60533333333333328</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38199999999999995</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>24.225034411061369</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3865320473273687E-5</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79453755431409034</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>605.33333333333337</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -16130,13 +17910,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>1.8347992577748646E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>0.67500000000000016</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47300000000000003</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>28.170767517702032</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.60136143043472168</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97672253258845476</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>675</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -16290,12 +18091,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>0.15968498767845141</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.41833333333333328</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>28.170767517702032</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.26967477593916966</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0533829919304765</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -16449,13 +18272,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>0.24565413796211924</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>0.6346666666666666</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41633333333333339</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>28.2458239688366</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.96539315737534126</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.99720670391061417</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>634.66666666666663</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -16525,8 +18369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CE8AA4-C000-41F4-BF16-645937E24711}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16728,13 +18572,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>1.9166666666666669E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1980600800923933</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5403715237111372E-7</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7718808193668526</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>191.66666666666666</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -16888,13 +18753,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>6.8005656242199328E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>2.3333333333333331E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2984046638381235</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48049541970884163</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0198634388578547</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>233.33333333333334</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -17048,12 +18934,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>6.6308183042097554E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>2.3333333333333331E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2984046638381235</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.48104767871594073</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.023277467411547</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>233.33333333333334</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -17207,13 +19115,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>2.1327365497779981E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>2.4966666666666665E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>1E-4</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3152327070721135</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12009720388601025</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1049037864680333</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>249.66666666666666</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -17283,8 +19212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F3453D-5969-43A8-99BA-C3A3B3B1D142}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17487,13 +19416,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>9.7777477660310869E-4</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>0.11446666666666667</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.3333333333333324E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.69571595499704</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4278884588492749</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0409683426443199</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>1144.6666666666667</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -17647,13 +19597,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>1.4860754234901896E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>0.11359999999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0666666666666673E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.69571595499704</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35715839450048104</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0471756672874</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>1136</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -17807,12 +19778,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>4.3844126490242006E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>0.11226666666666667</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5666666666666669E-3</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.671762983001853</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.43212017622540594</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0363128491620099</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>1122.6666666666667</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -17866,13 +19859,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2" t="e">
+        <f>AVERAGE(C22:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="2" t="e">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -17942,8 +19956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98613644-D52B-468D-B43A-F11B75F66227}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18145,13 +20159,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>0.17796666666666669</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3500000000000004E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7682596560500534</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9106895720387367E-9</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75977653631284914</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>1779.6666666666667</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -18305,13 +20340,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>4.5132360117670429E-10</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>0.2151666666666667</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6933333333333339E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.274484253148124</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36954892132548328</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95841092489137203</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>2151.6666666666665</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -18465,12 +20521,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>1.9746862023078355E-6</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>0.20616666666666669</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2933333333333335E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>4.274484253148124</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.59197107884495404</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.97610180012414627</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>2061.6666666666665</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -18624,13 +20702,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>4.3936377112329403E-4</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>0.20013333333333336</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.043333333333333E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1738748987979397</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>4.5449873159833565E-2</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.89602731222842957</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>2001.3333333333333</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -18701,7 +20800,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I32"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18903,13 +21002,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>2.1333333333333333E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2465939899118899</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9236651509449871E-7</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.76021203617087607</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>21.333333333333332</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -19044,13 +21164,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>0.7246428211176239</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>2.5500000000000002E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.33658448025911</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.67269747652020651</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.98222637979420213</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -19184,12 +21325,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>0.7246428211176239</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>2.5500000000000002E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.33658448025911</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.67876623005164749</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98269410664172308</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>25.5</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -19343,13 +21506,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>0.81858866937311137</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>2.3666666666666669E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3444171117798733</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52774092656947869</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.98939819145619001</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>23.666666666666668</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -19503,11 +21687,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C28:C30)</f>
+        <v>0.95961281489096173</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D28:D30)</f>
+        <v>0.02</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2431435258871801</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0853310245725047E-8</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.75553476769566574</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
@@ -19526,7 +21733,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19728,13 +21935,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D4:D6)</f>
+        <v>0.12</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8542836684947201</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6739687159470311E-8</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.76239476145930807</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -19888,13 +22116,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C10:C12)</f>
+        <v>0.31024931125845684</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D10:D12)</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3666666666666667E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.06287198937861</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.39294674294321336</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99095728094792668</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -20048,12 +22297,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>0.37703890722878364</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D16:D18)</f>
+        <v>0.13533333333333333</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.06287198937861</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.49245843278506701</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.97973183660742136</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>135.33333333333334</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -20207,13 +22478,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C22:C24)</f>
+        <v>0.37658491417176471</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
+        <v>0.13533333333333333</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2333333333333335E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0297912799068132</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.45675920580192858</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0439663236669801</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>135.33333333333334</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -20367,11 +22659,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C28:C30)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D28:D30)</f>
+        <v>0.12033333333333333</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>9.3333333333333324E-3</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8383939280337134</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.1562511079353874E-8</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.76177112566261307</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="4"/>
+        <v>120.33333333333333</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A70241F-C9B2-46E0-B016-7D40454B1D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB69EB44-EDCA-4252-A465-E615AE071E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I7"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1991,7 +1991,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27">
+        <v>0.91395869221355197</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="E27">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F27">
+        <v>4.33217840322438</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.8182921313251199E-10</v>
+      </c>
+      <c r="H27">
+        <v>0.74275023386342398</v>
+      </c>
+      <c r="I27">
+        <v>221</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -2000,7 +2020,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>0.911062216995975</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="E28">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F28">
+        <v>4.1847478649715901</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.0956975971422401E-5</v>
+      </c>
+      <c r="H28">
+        <v>0.818521983161833</v>
+      </c>
+      <c r="I28">
+        <v>202</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -2018,7 +2058,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="E30">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F30">
+        <v>4.3986216625821104</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.2254319638083599E-11</v>
+      </c>
+      <c r="H30">
+        <v>0.72778297474275</v>
+      </c>
+      <c r="I30">
+        <v>218</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -2027,33 +2087,33 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2" t="e">
+      <c r="C31" s="2">
         <f>AVERAGE(C28:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="2" t="e">
+        <v>0.9555311084979875</v>
+      </c>
+      <c r="D31" s="2">
         <f t="shared" ref="D31:I31" si="4">AVERAGE(D28:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="2" t="e">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="2" t="e">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F31" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="2" t="e">
+        <v>4.2916847637768498</v>
+      </c>
+      <c r="G31" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="2" t="e">
+        <v>5.4784941128710192E-6</v>
+      </c>
+      <c r="H31" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="2" t="e">
+        <v>0.77315247895229144</v>
+      </c>
+      <c r="I31" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -10123,7 +10183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
@@ -16683,7 +16743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2C081E-92D6-4B78-B185-DCBA62E5C9BB}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
@@ -17526,7 +17586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF9AAFD-684E-44CB-B1B1-CDA94ECB61EF}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
@@ -18369,7 +18429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CE8AA4-C000-41F4-BF16-645937E24711}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
@@ -19213,7 +19273,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I7"/>
+      <selection activeCell="C25" sqref="C25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19814,7 +19874,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>2.59244553865445E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.106</v>
+      </c>
+      <c r="E20">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="F20">
+        <v>2.5715822491965801</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.98269097858266097</v>
+      </c>
+      <c r="H20">
+        <v>0.99813780260707596</v>
+      </c>
+      <c r="I20">
+        <v>1060</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -19823,7 +19903,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>3.7948161687257398E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="E21">
+        <v>1.37E-2</v>
+      </c>
+      <c r="F21">
+        <v>2.9812936491522901</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.89664340549225596</v>
+      </c>
+      <c r="H21">
+        <v>1.00651769087523</v>
+      </c>
+      <c r="I21">
+        <v>1151</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -19832,7 +19932,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>5.4935053890874204E-3</v>
+      </c>
+      <c r="D22">
+        <v>0.1144</v>
+      </c>
+      <c r="E22">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="F22">
+        <v>2.6756255164085601</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.35592429310670198</v>
+      </c>
+      <c r="H22">
+        <v>1.0409683426443199</v>
+      </c>
+      <c r="I22">
+        <v>1144</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -19841,7 +19961,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>6.8316665990964297E-3</v>
+      </c>
+      <c r="D23">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="E23">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="F23">
+        <v>2.6294456516931399</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.66601506352085305</v>
+      </c>
+      <c r="H23">
+        <v>1.0195530726257001</v>
+      </c>
+      <c r="I23">
+        <v>1083</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -19850,7 +19990,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>8.2806595888874999E-4</v>
+      </c>
+      <c r="D24">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="E24">
+        <v>8.6E-3</v>
+      </c>
+      <c r="F24">
+        <v>2.7102177809038599</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.27442117204866301</v>
+      </c>
+      <c r="H24">
+        <v>1.0484171322160101</v>
+      </c>
+      <c r="I24">
+        <v>1141</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -19859,33 +20019,33 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2" t="e">
+      <c r="C25" s="2">
         <f>AVERAGE(C22:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="2" t="e">
+        <v>4.3844126490242006E-3</v>
+      </c>
+      <c r="D25" s="2">
         <f t="shared" ref="D25:I25" si="3">AVERAGE(D22:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="2" t="e">
+        <v>0.11226666666666667</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="2" t="e">
+        <v>8.5666666666666669E-3</v>
+      </c>
+      <c r="F25" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="2" t="e">
+        <v>2.671762983001853</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="2" t="e">
+        <v>0.43212017622540594</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="2" t="e">
+        <v>1.0363128491620099</v>
+      </c>
+      <c r="I25" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1122.6666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -19956,7 +20116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98613644-D52B-468D-B43A-F11B75F66227}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB69EB44-EDCA-4252-A465-E615AE071E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD5E5D7-8AB4-4CFE-B7F8-B91294904F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -10183,8 +10183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I7"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16744,7 +16744,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I7"/>
+      <selection activeCell="A8" sqref="A8:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16756,7 +16756,8 @@
     <col min="5" max="5" width="11.9140625" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+    <col min="8" max="8" width="19.4140625" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -19272,8 +19273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F3453D-5969-43A8-99BA-C3A3B3B1D142}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
